--- a/src/main/resources/stageFiles/word_Graduate_Entrance_Exam5500.xlsx
+++ b/src/main/resources/stageFiles/word_Graduate_Entrance_Exam5500.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11024">
   <si>
     <t>a/an</t>
   </si>
@@ -13294,6 +13294,12 @@
     <t>a.成年的，长大的，长满某物的</t>
   </si>
   <si>
+    <t>grown-up</t>
+  </si>
+  <si>
+    <t>a.成人的，成熟的；n.成年人</t>
+  </si>
+  <si>
     <t>growth</t>
   </si>
   <si>
@@ -13561,7 +13567,7 @@
     <t>hardly</t>
   </si>
   <si>
-    <t>ad.几乎不,简直不;仅仅</t>
+    <t>ad.几乎不,简直不;仅仅,刚刚</t>
   </si>
   <si>
     <t>hardship</t>
@@ -14167,7 +14173,7 @@
     <t>honey</t>
   </si>
   <si>
-    <t>n.蜜,蜂蜜</t>
+    <t>n.蜜,蜂蜜，甜蜜，宝贝，亲爱的</t>
   </si>
   <si>
     <t>honor</t>
@@ -14218,6 +14224,12 @@
     <t>a.地平线的;水平的</t>
   </si>
   <si>
+    <t>hormone</t>
+  </si>
+  <si>
+    <t>n.激素，荷尔蒙</t>
+  </si>
+  <si>
     <t>horn</t>
   </si>
   <si>
@@ -15946,7 +15958,7 @@
     <t>jargon</t>
   </si>
   <si>
-    <t>n.行话</t>
+    <t>n.行话,术语</t>
   </si>
   <si>
     <t>jaw</t>
@@ -16216,7 +16228,7 @@
     <t>kilo</t>
   </si>
   <si>
-    <t>n.(kilogram/kilogramme)千克</t>
+    <t>n.(kilogram/kilogramme)千克，公斤</t>
   </si>
   <si>
     <t>kilometre</t>
@@ -33081,10 +33093,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -33119,6 +33131,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -33127,7 +33186,54 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -33141,30 +33247,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -33179,78 +33262,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -33262,120 +33274,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -33403,25 +33301,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -33439,13 +33325,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -33456,6 +33468,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -33470,6 +33521,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -33497,65 +33568,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -33564,10 +33576,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -33576,133 +33588,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -34070,10 +34082,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5528"/>
+  <dimension ref="A1:D5530"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2186" workbookViewId="0">
-      <selection activeCell="C2210" sqref="C2210"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -56461,6 +56473,9 @@
       <c r="B2207" t="s">
         <v>4384</v>
       </c>
+      <c r="C2207" t="s">
+        <v>1</v>
+      </c>
       <c r="D2207" t="s">
         <v>4385</v>
       </c>
@@ -56477,6 +56492,9 @@
       <c r="B2209" t="s">
         <v>4388</v>
       </c>
+      <c r="C2209" t="s">
+        <v>1</v>
+      </c>
       <c r="D2209" t="s">
         <v>4389</v>
       </c>
@@ -56485,6 +56503,9 @@
       <c r="B2210" t="s">
         <v>4390</v>
       </c>
+      <c r="C2210" t="s">
+        <v>1</v>
+      </c>
       <c r="D2210" t="s">
         <v>4391</v>
       </c>
@@ -56501,6 +56522,9 @@
       <c r="B2212" t="s">
         <v>4394</v>
       </c>
+      <c r="C2212" t="s">
+        <v>1</v>
+      </c>
       <c r="D2212" t="s">
         <v>4395</v>
       </c>
@@ -56509,6 +56533,9 @@
       <c r="B2213" t="s">
         <v>4396</v>
       </c>
+      <c r="C2213" t="s">
+        <v>1</v>
+      </c>
       <c r="D2213" t="s">
         <v>4397</v>
       </c>
@@ -56565,6 +56592,9 @@
       <c r="B2220" t="s">
         <v>4410</v>
       </c>
+      <c r="C2220" t="s">
+        <v>1</v>
+      </c>
       <c r="D2220" t="s">
         <v>4411</v>
       </c>
@@ -56573,6 +56603,9 @@
       <c r="B2221" t="s">
         <v>4412</v>
       </c>
+      <c r="C2221" t="s">
+        <v>1</v>
+      </c>
       <c r="D2221" t="s">
         <v>4413</v>
       </c>
@@ -56597,6 +56630,9 @@
       <c r="B2224" t="s">
         <v>4418</v>
       </c>
+      <c r="C2224" t="s">
+        <v>1</v>
+      </c>
       <c r="D2224" t="s">
         <v>4419</v>
       </c>
@@ -56605,6 +56641,9 @@
       <c r="B2225" t="s">
         <v>4420</v>
       </c>
+      <c r="C2225" t="s">
+        <v>1</v>
+      </c>
       <c r="D2225" t="s">
         <v>4421</v>
       </c>
@@ -56613,6 +56652,9 @@
       <c r="B2226" t="s">
         <v>4422</v>
       </c>
+      <c r="C2226" t="s">
+        <v>1</v>
+      </c>
       <c r="D2226" t="s">
         <v>4423</v>
       </c>
@@ -56629,6 +56671,9 @@
       <c r="B2228" t="s">
         <v>4426</v>
       </c>
+      <c r="C2228" t="s">
+        <v>1</v>
+      </c>
       <c r="D2228" t="s">
         <v>4427</v>
       </c>
@@ -56637,6 +56682,9 @@
       <c r="B2229" t="s">
         <v>4428</v>
       </c>
+      <c r="C2229" t="s">
+        <v>1</v>
+      </c>
       <c r="D2229" t="s">
         <v>4429</v>
       </c>
@@ -56661,6 +56709,9 @@
       <c r="B2232" t="s">
         <v>4434</v>
       </c>
+      <c r="C2232" t="s">
+        <v>1</v>
+      </c>
       <c r="D2232" t="s">
         <v>4435</v>
       </c>
@@ -56669,6 +56720,9 @@
       <c r="B2233" t="s">
         <v>4436</v>
       </c>
+      <c r="C2233" t="s">
+        <v>1</v>
+      </c>
       <c r="D2233" t="s">
         <v>4437</v>
       </c>
@@ -56717,6 +56771,9 @@
       <c r="B2239" t="s">
         <v>4448</v>
       </c>
+      <c r="C2239" t="s">
+        <v>1</v>
+      </c>
       <c r="D2239" t="s">
         <v>4449</v>
       </c>
@@ -56741,6 +56798,9 @@
       <c r="B2242" t="s">
         <v>4454</v>
       </c>
+      <c r="C2242" t="s">
+        <v>1</v>
+      </c>
       <c r="D2242" t="s">
         <v>4455</v>
       </c>
@@ -56757,6 +56817,9 @@
       <c r="B2244" t="s">
         <v>4458</v>
       </c>
+      <c r="C2244" t="s">
+        <v>1</v>
+      </c>
       <c r="D2244" t="s">
         <v>4459</v>
       </c>
@@ -56765,6 +56828,9 @@
       <c r="B2245" t="s">
         <v>4460</v>
       </c>
+      <c r="C2245" t="s">
+        <v>1</v>
+      </c>
       <c r="D2245" t="s">
         <v>4461</v>
       </c>
@@ -56773,6 +56839,9 @@
       <c r="B2246" t="s">
         <v>4462</v>
       </c>
+      <c r="C2246" t="s">
+        <v>1</v>
+      </c>
       <c r="D2246" t="s">
         <v>4463</v>
       </c>
@@ -56789,6 +56858,9 @@
       <c r="B2248" t="s">
         <v>4466</v>
       </c>
+      <c r="C2248" t="s">
+        <v>1</v>
+      </c>
       <c r="D2248" t="s">
         <v>4467</v>
       </c>
@@ -56797,6 +56869,9 @@
       <c r="B2249" t="s">
         <v>4468</v>
       </c>
+      <c r="C2249" t="s">
+        <v>1</v>
+      </c>
       <c r="D2249" t="s">
         <v>4469</v>
       </c>
@@ -56805,6 +56880,9 @@
       <c r="B2250" t="s">
         <v>4470</v>
       </c>
+      <c r="C2250" t="s">
+        <v>1</v>
+      </c>
       <c r="D2250" t="s">
         <v>4471</v>
       </c>
@@ -56813,6 +56891,9 @@
       <c r="B2251" t="s">
         <v>4472</v>
       </c>
+      <c r="C2251" t="s">
+        <v>1</v>
+      </c>
       <c r="D2251" t="s">
         <v>4473</v>
       </c>
@@ -56829,6 +56910,9 @@
       <c r="B2253" t="s">
         <v>4476</v>
       </c>
+      <c r="C2253" t="s">
+        <v>1</v>
+      </c>
       <c r="D2253" t="s">
         <v>4477</v>
       </c>
@@ -56837,6 +56921,9 @@
       <c r="B2254" t="s">
         <v>4478</v>
       </c>
+      <c r="C2254" t="s">
+        <v>1</v>
+      </c>
       <c r="D2254" t="s">
         <v>4479</v>
       </c>
@@ -56845,6 +56932,9 @@
       <c r="B2255" t="s">
         <v>4480</v>
       </c>
+      <c r="C2255" t="s">
+        <v>1</v>
+      </c>
       <c r="D2255" t="s">
         <v>4481</v>
       </c>
@@ -56861,6 +56951,9 @@
       <c r="B2257" t="s">
         <v>4484</v>
       </c>
+      <c r="C2257" t="s">
+        <v>1</v>
+      </c>
       <c r="D2257" t="s">
         <v>4485</v>
       </c>
@@ -56869,6 +56962,9 @@
       <c r="B2258" t="s">
         <v>4486</v>
       </c>
+      <c r="C2258" t="s">
+        <v>1</v>
+      </c>
       <c r="D2258" t="s">
         <v>4487</v>
       </c>
@@ -56893,6 +56989,9 @@
       <c r="B2261" t="s">
         <v>4492</v>
       </c>
+      <c r="C2261" t="s">
+        <v>1</v>
+      </c>
       <c r="D2261" t="s">
         <v>4493</v>
       </c>
@@ -56917,6 +57016,9 @@
       <c r="B2264" t="s">
         <v>4498</v>
       </c>
+      <c r="C2264" t="s">
+        <v>1</v>
+      </c>
       <c r="D2264" t="s">
         <v>4499</v>
       </c>
@@ -56933,6 +57035,9 @@
       <c r="B2266" t="s">
         <v>4502</v>
       </c>
+      <c r="C2266" t="s">
+        <v>1</v>
+      </c>
       <c r="D2266" t="s">
         <v>4503</v>
       </c>
@@ -56949,6 +57054,9 @@
       <c r="B2268" t="s">
         <v>4506</v>
       </c>
+      <c r="C2268" t="s">
+        <v>1</v>
+      </c>
       <c r="D2268" t="s">
         <v>4507</v>
       </c>
@@ -56973,6 +57081,9 @@
       <c r="B2271" t="s">
         <v>4512</v>
       </c>
+      <c r="C2271" t="s">
+        <v>1</v>
+      </c>
       <c r="D2271" t="s">
         <v>4513</v>
       </c>
@@ -56989,6 +57100,9 @@
       <c r="B2273" t="s">
         <v>4516</v>
       </c>
+      <c r="C2273" t="s">
+        <v>1</v>
+      </c>
       <c r="D2273" t="s">
         <v>4517</v>
       </c>
@@ -57005,6 +57119,9 @@
       <c r="B2275" t="s">
         <v>4520</v>
       </c>
+      <c r="C2275" t="s">
+        <v>1</v>
+      </c>
       <c r="D2275" t="s">
         <v>4521</v>
       </c>
@@ -57045,6 +57162,9 @@
       <c r="B2280" t="s">
         <v>4530</v>
       </c>
+      <c r="C2280" t="s">
+        <v>1</v>
+      </c>
       <c r="D2280" t="s">
         <v>4531</v>
       </c>
@@ -57053,6 +57173,9 @@
       <c r="B2281" t="s">
         <v>4532</v>
       </c>
+      <c r="C2281" t="s">
+        <v>1</v>
+      </c>
       <c r="D2281" t="s">
         <v>4533</v>
       </c>
@@ -57069,6 +57192,9 @@
       <c r="B2283" t="s">
         <v>4536</v>
       </c>
+      <c r="C2283" t="s">
+        <v>1</v>
+      </c>
       <c r="D2283" t="s">
         <v>4537</v>
       </c>
@@ -57101,6 +57227,9 @@
       <c r="B2287" t="s">
         <v>4544</v>
       </c>
+      <c r="C2287" t="s">
+        <v>1</v>
+      </c>
       <c r="D2287" t="s">
         <v>4545</v>
       </c>
@@ -57109,6 +57238,9 @@
       <c r="B2288" t="s">
         <v>4546</v>
       </c>
+      <c r="C2288" t="s">
+        <v>1</v>
+      </c>
       <c r="D2288" t="s">
         <v>4547</v>
       </c>
@@ -57117,6 +57249,9 @@
       <c r="B2289" t="s">
         <v>4548</v>
       </c>
+      <c r="C2289" t="s">
+        <v>1</v>
+      </c>
       <c r="D2289" t="s">
         <v>4549</v>
       </c>
@@ -57141,6 +57276,9 @@
       <c r="B2292" t="s">
         <v>4554</v>
       </c>
+      <c r="C2292" t="s">
+        <v>1</v>
+      </c>
       <c r="D2292" t="s">
         <v>4555</v>
       </c>
@@ -57149,6 +57287,9 @@
       <c r="B2293" t="s">
         <v>4556</v>
       </c>
+      <c r="C2293" t="s">
+        <v>1</v>
+      </c>
       <c r="D2293" t="s">
         <v>4557</v>
       </c>
@@ -57157,6 +57298,9 @@
       <c r="B2294" t="s">
         <v>4558</v>
       </c>
+      <c r="C2294" t="s">
+        <v>1</v>
+      </c>
       <c r="D2294" t="s">
         <v>4559</v>
       </c>
@@ -57165,6 +57309,9 @@
       <c r="B2295" t="s">
         <v>4560</v>
       </c>
+      <c r="C2295" t="s">
+        <v>1</v>
+      </c>
       <c r="D2295" t="s">
         <v>4561</v>
       </c>
@@ -57181,6 +57328,9 @@
       <c r="B2297" t="s">
         <v>4564</v>
       </c>
+      <c r="C2297" t="s">
+        <v>1</v>
+      </c>
       <c r="D2297" t="s">
         <v>4565</v>
       </c>
@@ -57189,6 +57339,9 @@
       <c r="B2298" t="s">
         <v>4566</v>
       </c>
+      <c r="C2298" t="s">
+        <v>1</v>
+      </c>
       <c r="D2298" t="s">
         <v>4567</v>
       </c>
@@ -57205,6 +57358,9 @@
       <c r="B2300" t="s">
         <v>4570</v>
       </c>
+      <c r="C2300" t="s">
+        <v>1</v>
+      </c>
       <c r="D2300" t="s">
         <v>4571</v>
       </c>
@@ -57213,6 +57369,9 @@
       <c r="B2301" t="s">
         <v>4572</v>
       </c>
+      <c r="C2301" t="s">
+        <v>1</v>
+      </c>
       <c r="D2301" t="s">
         <v>4573</v>
       </c>
@@ -57229,6 +57388,9 @@
       <c r="B2303" t="s">
         <v>4576</v>
       </c>
+      <c r="C2303" t="s">
+        <v>1</v>
+      </c>
       <c r="D2303" t="s">
         <v>4577</v>
       </c>
@@ -57237,6 +57399,9 @@
       <c r="B2304" t="s">
         <v>4578</v>
       </c>
+      <c r="C2304" t="s">
+        <v>1</v>
+      </c>
       <c r="D2304" t="s">
         <v>4579</v>
       </c>
@@ -57245,6 +57410,9 @@
       <c r="B2305" t="s">
         <v>4580</v>
       </c>
+      <c r="C2305" t="s">
+        <v>1</v>
+      </c>
       <c r="D2305" t="s">
         <v>4581</v>
       </c>
@@ -57253,6 +57421,9 @@
       <c r="B2306" t="s">
         <v>4582</v>
       </c>
+      <c r="C2306" t="s">
+        <v>1</v>
+      </c>
       <c r="D2306" t="s">
         <v>4583</v>
       </c>
@@ -57269,6 +57440,9 @@
       <c r="B2308" t="s">
         <v>4586</v>
       </c>
+      <c r="C2308" t="s">
+        <v>1</v>
+      </c>
       <c r="D2308" t="s">
         <v>4587</v>
       </c>
@@ -57277,6 +57451,9 @@
       <c r="B2309" t="s">
         <v>4588</v>
       </c>
+      <c r="C2309" t="s">
+        <v>1</v>
+      </c>
       <c r="D2309" t="s">
         <v>4589</v>
       </c>
@@ -57293,6 +57470,9 @@
       <c r="B2311" t="s">
         <v>4592</v>
       </c>
+      <c r="C2311" t="s">
+        <v>1</v>
+      </c>
       <c r="D2311" t="s">
         <v>4593</v>
       </c>
@@ -57301,6 +57481,9 @@
       <c r="B2312" t="s">
         <v>4594</v>
       </c>
+      <c r="C2312" t="s">
+        <v>1</v>
+      </c>
       <c r="D2312" t="s">
         <v>4595</v>
       </c>
@@ -57325,6 +57508,9 @@
       <c r="B2315" t="s">
         <v>4600</v>
       </c>
+      <c r="C2315" t="s">
+        <v>1</v>
+      </c>
       <c r="D2315" t="s">
         <v>4601</v>
       </c>
@@ -57341,6 +57527,9 @@
       <c r="B2317" t="s">
         <v>4604</v>
       </c>
+      <c r="C2317" t="s">
+        <v>1</v>
+      </c>
       <c r="D2317" t="s">
         <v>4605</v>
       </c>
@@ -57357,6 +57546,9 @@
       <c r="B2319" t="s">
         <v>4608</v>
       </c>
+      <c r="C2319" t="s">
+        <v>1</v>
+      </c>
       <c r="D2319" t="s">
         <v>4609</v>
       </c>
@@ -57365,6 +57557,9 @@
       <c r="B2320" t="s">
         <v>4610</v>
       </c>
+      <c r="C2320" t="s">
+        <v>1</v>
+      </c>
       <c r="D2320" t="s">
         <v>4611</v>
       </c>
@@ -57381,6 +57576,9 @@
       <c r="B2322" t="s">
         <v>4614</v>
       </c>
+      <c r="C2322" t="s">
+        <v>1</v>
+      </c>
       <c r="D2322" t="s">
         <v>4615</v>
       </c>
@@ -57405,6 +57603,9 @@
       <c r="B2325" t="s">
         <v>4620</v>
       </c>
+      <c r="C2325" t="s">
+        <v>1</v>
+      </c>
       <c r="D2325" t="s">
         <v>4621</v>
       </c>
@@ -57421,6 +57622,9 @@
       <c r="B2327" t="s">
         <v>4624</v>
       </c>
+      <c r="C2327" t="s">
+        <v>1</v>
+      </c>
       <c r="D2327" t="s">
         <v>4625</v>
       </c>
@@ -57429,6 +57633,9 @@
       <c r="B2328" t="s">
         <v>4626</v>
       </c>
+      <c r="C2328" t="s">
+        <v>1</v>
+      </c>
       <c r="D2328" t="s">
         <v>4627</v>
       </c>
@@ -57445,6 +57652,9 @@
       <c r="B2330" t="s">
         <v>4630</v>
       </c>
+      <c r="C2330" t="s">
+        <v>1</v>
+      </c>
       <c r="D2330" t="s">
         <v>4631</v>
       </c>
@@ -57469,6 +57679,9 @@
       <c r="B2333" t="s">
         <v>4636</v>
       </c>
+      <c r="C2333" t="s">
+        <v>1</v>
+      </c>
       <c r="D2333" t="s">
         <v>4637</v>
       </c>
@@ -57477,6 +57690,9 @@
       <c r="B2334" t="s">
         <v>4638</v>
       </c>
+      <c r="C2334" t="s">
+        <v>1</v>
+      </c>
       <c r="D2334" t="s">
         <v>4639</v>
       </c>
@@ -57485,6 +57701,9 @@
       <c r="B2335" t="s">
         <v>4640</v>
       </c>
+      <c r="C2335" t="s">
+        <v>1</v>
+      </c>
       <c r="D2335" t="s">
         <v>4641</v>
       </c>
@@ -57501,6 +57720,9 @@
       <c r="B2337" t="s">
         <v>4644</v>
       </c>
+      <c r="C2337" t="s">
+        <v>1</v>
+      </c>
       <c r="D2337" t="s">
         <v>4645</v>
       </c>
@@ -57525,6 +57747,9 @@
       <c r="B2340" t="s">
         <v>4650</v>
       </c>
+      <c r="C2340" t="s">
+        <v>1</v>
+      </c>
       <c r="D2340" t="s">
         <v>4651</v>
       </c>
@@ -57549,6 +57774,9 @@
       <c r="B2343" t="s">
         <v>4656</v>
       </c>
+      <c r="C2343" t="s">
+        <v>1</v>
+      </c>
       <c r="D2343" t="s">
         <v>4657</v>
       </c>
@@ -57557,6 +57785,9 @@
       <c r="B2344" t="s">
         <v>4658</v>
       </c>
+      <c r="C2344" t="s">
+        <v>1</v>
+      </c>
       <c r="D2344" t="s">
         <v>4659</v>
       </c>
@@ -57573,6 +57804,9 @@
       <c r="B2346" t="s">
         <v>4662</v>
       </c>
+      <c r="C2346" t="s">
+        <v>1</v>
+      </c>
       <c r="D2346" t="s">
         <v>4663</v>
       </c>
@@ -57581,6 +57815,9 @@
       <c r="B2347" t="s">
         <v>4664</v>
       </c>
+      <c r="C2347" t="s">
+        <v>1</v>
+      </c>
       <c r="D2347" t="s">
         <v>4665</v>
       </c>
@@ -57589,6 +57826,9 @@
       <c r="B2348" t="s">
         <v>4666</v>
       </c>
+      <c r="C2348" t="s">
+        <v>1</v>
+      </c>
       <c r="D2348" t="s">
         <v>4667</v>
       </c>
@@ -57597,6 +57837,9 @@
       <c r="B2349" t="s">
         <v>4668</v>
       </c>
+      <c r="C2349" t="s">
+        <v>1</v>
+      </c>
       <c r="D2349" t="s">
         <v>4669</v>
       </c>
@@ -57637,6 +57880,9 @@
       <c r="B2354" t="s">
         <v>4678</v>
       </c>
+      <c r="C2354" t="s">
+        <v>1</v>
+      </c>
       <c r="D2354" t="s">
         <v>4679</v>
       </c>
@@ -57645,6 +57891,9 @@
       <c r="B2355" t="s">
         <v>4680</v>
       </c>
+      <c r="C2355" t="s">
+        <v>1</v>
+      </c>
       <c r="D2355" t="s">
         <v>4681</v>
       </c>
@@ -57653,6 +57902,9 @@
       <c r="B2356" t="s">
         <v>4682</v>
       </c>
+      <c r="C2356" t="s">
+        <v>1</v>
+      </c>
       <c r="D2356" t="s">
         <v>4683</v>
       </c>
@@ -57677,6 +57929,9 @@
       <c r="B2359" t="s">
         <v>4688</v>
       </c>
+      <c r="C2359" t="s">
+        <v>1</v>
+      </c>
       <c r="D2359" t="s">
         <v>4689</v>
       </c>
@@ -57701,6 +57956,9 @@
       <c r="B2362" t="s">
         <v>4694</v>
       </c>
+      <c r="C2362" t="s">
+        <v>1</v>
+      </c>
       <c r="D2362" t="s">
         <v>4695</v>
       </c>
@@ -57717,6 +57975,9 @@
       <c r="B2364" t="s">
         <v>4698</v>
       </c>
+      <c r="C2364" t="s">
+        <v>1</v>
+      </c>
       <c r="D2364" t="s">
         <v>4699</v>
       </c>
@@ -57725,6 +57986,9 @@
       <c r="B2365" t="s">
         <v>4700</v>
       </c>
+      <c r="C2365" t="s">
+        <v>1</v>
+      </c>
       <c r="D2365" t="s">
         <v>4701</v>
       </c>
@@ -57733,6 +57997,9 @@
       <c r="B2366" t="s">
         <v>4702</v>
       </c>
+      <c r="C2366" t="s">
+        <v>1</v>
+      </c>
       <c r="D2366" t="s">
         <v>4703</v>
       </c>
@@ -57741,6 +58008,9 @@
       <c r="B2367" t="s">
         <v>4704</v>
       </c>
+      <c r="C2367" t="s">
+        <v>1</v>
+      </c>
       <c r="D2367" t="s">
         <v>4705</v>
       </c>
@@ -57765,6 +58035,9 @@
       <c r="B2370" t="s">
         <v>4710</v>
       </c>
+      <c r="C2370" t="s">
+        <v>1</v>
+      </c>
       <c r="D2370" t="s">
         <v>4711</v>
       </c>
@@ -57773,6 +58046,9 @@
       <c r="B2371" t="s">
         <v>4712</v>
       </c>
+      <c r="C2371" t="s">
+        <v>1</v>
+      </c>
       <c r="D2371" t="s">
         <v>4713</v>
       </c>
@@ -57789,6 +58065,9 @@
       <c r="B2373" t="s">
         <v>4716</v>
       </c>
+      <c r="C2373" t="s">
+        <v>1</v>
+      </c>
       <c r="D2373" t="s">
         <v>4717</v>
       </c>
@@ -57797,6 +58076,9 @@
       <c r="B2374" t="s">
         <v>4718</v>
       </c>
+      <c r="C2374" t="s">
+        <v>1</v>
+      </c>
       <c r="D2374" t="s">
         <v>4719</v>
       </c>
@@ -57829,6 +58111,9 @@
       <c r="B2378" t="s">
         <v>4726</v>
       </c>
+      <c r="C2378" t="s">
+        <v>1</v>
+      </c>
       <c r="D2378" t="s">
         <v>4727</v>
       </c>
@@ -57837,6 +58122,9 @@
       <c r="B2379" t="s">
         <v>4728</v>
       </c>
+      <c r="C2379" t="s">
+        <v>1</v>
+      </c>
       <c r="D2379" t="s">
         <v>4729</v>
       </c>
@@ -57845,6 +58133,9 @@
       <c r="B2380" t="s">
         <v>4730</v>
       </c>
+      <c r="C2380" t="s">
+        <v>1</v>
+      </c>
       <c r="D2380" t="s">
         <v>4731</v>
       </c>
@@ -57861,13 +58152,22 @@
       <c r="B2382" t="s">
         <v>4734</v>
       </c>
+      <c r="C2382" t="s">
+        <v>1</v>
+      </c>
       <c r="D2382" t="s">
         <v>4735</v>
       </c>
     </row>
-    <row r="2383" spans="2:4">
+    <row r="2383" spans="1:4">
+      <c r="A2383" t="s">
+        <v>111</v>
+      </c>
       <c r="B2383" t="s">
         <v>4736</v>
+      </c>
+      <c r="C2383" t="s">
+        <v>1</v>
       </c>
       <c r="D2383" t="s">
         <v>4737</v>
@@ -57901,6 +58201,9 @@
       <c r="B2387" t="s">
         <v>4744</v>
       </c>
+      <c r="C2387" t="s">
+        <v>1</v>
+      </c>
       <c r="D2387" t="s">
         <v>4745</v>
       </c>
@@ -57909,6 +58212,9 @@
       <c r="B2388" t="s">
         <v>4746</v>
       </c>
+      <c r="C2388" t="s">
+        <v>1</v>
+      </c>
       <c r="D2388" t="s">
         <v>4747</v>
       </c>
@@ -57925,6 +58231,9 @@
       <c r="B2390" t="s">
         <v>4750</v>
       </c>
+      <c r="C2390" t="s">
+        <v>1</v>
+      </c>
       <c r="D2390" t="s">
         <v>4751</v>
       </c>
@@ -57957,6 +58266,9 @@
       <c r="B2394" t="s">
         <v>4758</v>
       </c>
+      <c r="C2394" t="s">
+        <v>1</v>
+      </c>
       <c r="D2394" t="s">
         <v>4759</v>
       </c>
@@ -57973,6 +58285,9 @@
       <c r="B2396" t="s">
         <v>4762</v>
       </c>
+      <c r="C2396" t="s">
+        <v>1</v>
+      </c>
       <c r="D2396" t="s">
         <v>4763</v>
       </c>
@@ -57981,6 +58296,9 @@
       <c r="B2397" t="s">
         <v>4764</v>
       </c>
+      <c r="C2397" t="s">
+        <v>1</v>
+      </c>
       <c r="D2397" t="s">
         <v>4765</v>
       </c>
@@ -57997,6 +58315,9 @@
       <c r="B2399" t="s">
         <v>4768</v>
       </c>
+      <c r="C2399" t="s">
+        <v>1</v>
+      </c>
       <c r="D2399" t="s">
         <v>4769</v>
       </c>
@@ -58005,6 +58326,9 @@
       <c r="B2400" t="s">
         <v>4770</v>
       </c>
+      <c r="C2400" t="s">
+        <v>1</v>
+      </c>
       <c r="D2400" t="s">
         <v>4771</v>
       </c>
@@ -58021,6 +58345,9 @@
       <c r="B2402" t="s">
         <v>4774</v>
       </c>
+      <c r="C2402" t="s">
+        <v>1</v>
+      </c>
       <c r="D2402" t="s">
         <v>4775</v>
       </c>
@@ -58029,6 +58356,9 @@
       <c r="B2403" t="s">
         <v>4776</v>
       </c>
+      <c r="C2403" t="s">
+        <v>1</v>
+      </c>
       <c r="D2403" t="s">
         <v>4777</v>
       </c>
@@ -58053,6 +58383,9 @@
       <c r="B2406" t="s">
         <v>4782</v>
       </c>
+      <c r="C2406" t="s">
+        <v>1</v>
+      </c>
       <c r="D2406" t="s">
         <v>4783</v>
       </c>
@@ -58061,6 +58394,9 @@
       <c r="B2407" t="s">
         <v>4784</v>
       </c>
+      <c r="C2407" t="s">
+        <v>1</v>
+      </c>
       <c r="D2407" t="s">
         <v>4785</v>
       </c>
@@ -58078,23 +58414,29 @@
         <v>4788</v>
       </c>
       <c r="D2409" t="s">
-        <v>3330</v>
+        <v>4789</v>
       </c>
     </row>
     <row r="2410" spans="2:4">
       <c r="B2410" t="s">
-        <v>4789</v>
+        <v>4790</v>
+      </c>
+      <c r="C2410" t="s">
+        <v>1</v>
       </c>
       <c r="D2410" t="s">
-        <v>4790</v>
+        <v>4791</v>
       </c>
     </row>
     <row r="2411" spans="2:4">
       <c r="B2411" t="s">
-        <v>4791</v>
+        <v>4792</v>
+      </c>
+      <c r="C2411" t="s">
+        <v>1</v>
       </c>
       <c r="D2411" t="s">
-        <v>4792</v>
+        <v>3330</v>
       </c>
     </row>
     <row r="2412" spans="2:4">
@@ -58109,6 +58451,9 @@
       <c r="B2413" t="s">
         <v>4795</v>
       </c>
+      <c r="C2413" t="s">
+        <v>1</v>
+      </c>
       <c r="D2413" t="s">
         <v>4796</v>
       </c>
@@ -58173,6 +58518,9 @@
       <c r="B2421" t="s">
         <v>4811</v>
       </c>
+      <c r="C2421" t="s">
+        <v>1</v>
+      </c>
       <c r="D2421" t="s">
         <v>4812</v>
       </c>
@@ -58181,6 +58529,9 @@
       <c r="B2422" t="s">
         <v>4813</v>
       </c>
+      <c r="C2422" t="s">
+        <v>1</v>
+      </c>
       <c r="D2422" t="s">
         <v>4814</v>
       </c>
@@ -58189,6 +58540,9 @@
       <c r="B2423" t="s">
         <v>4815</v>
       </c>
+      <c r="C2423" t="s">
+        <v>1</v>
+      </c>
       <c r="D2423" t="s">
         <v>4816</v>
       </c>
@@ -58197,6 +58551,9 @@
       <c r="B2424" t="s">
         <v>4817</v>
       </c>
+      <c r="C2424" t="s">
+        <v>1</v>
+      </c>
       <c r="D2424" t="s">
         <v>4818</v>
       </c>
@@ -58213,6 +58570,9 @@
       <c r="B2426" t="s">
         <v>4821</v>
       </c>
+      <c r="C2426" t="s">
+        <v>1</v>
+      </c>
       <c r="D2426" t="s">
         <v>4822</v>
       </c>
@@ -58221,6 +58581,9 @@
       <c r="B2427" t="s">
         <v>4823</v>
       </c>
+      <c r="C2427" t="s">
+        <v>1</v>
+      </c>
       <c r="D2427" t="s">
         <v>4824</v>
       </c>
@@ -58229,6 +58592,9 @@
       <c r="B2428" t="s">
         <v>4825</v>
       </c>
+      <c r="C2428" t="s">
+        <v>1</v>
+      </c>
       <c r="D2428" t="s">
         <v>4826</v>
       </c>
@@ -58237,6 +58603,9 @@
       <c r="B2429" t="s">
         <v>4827</v>
       </c>
+      <c r="C2429" t="s">
+        <v>1</v>
+      </c>
       <c r="D2429" t="s">
         <v>4828</v>
       </c>
@@ -58245,6 +58614,9 @@
       <c r="B2430" t="s">
         <v>4829</v>
       </c>
+      <c r="C2430" t="s">
+        <v>1</v>
+      </c>
       <c r="D2430" t="s">
         <v>4830</v>
       </c>
@@ -58293,6 +58665,9 @@
       <c r="B2436" t="s">
         <v>4841</v>
       </c>
+      <c r="C2436" t="s">
+        <v>1</v>
+      </c>
       <c r="D2436" t="s">
         <v>4842</v>
       </c>
@@ -58301,6 +58676,9 @@
       <c r="B2437" t="s">
         <v>4843</v>
       </c>
+      <c r="C2437" t="s">
+        <v>1</v>
+      </c>
       <c r="D2437" t="s">
         <v>4844</v>
       </c>
@@ -58309,6 +58687,9 @@
       <c r="B2438" t="s">
         <v>4845</v>
       </c>
+      <c r="C2438" t="s">
+        <v>1</v>
+      </c>
       <c r="D2438" t="s">
         <v>4846</v>
       </c>
@@ -58349,6 +58730,9 @@
       <c r="B2443" t="s">
         <v>4855</v>
       </c>
+      <c r="C2443" t="s">
+        <v>1</v>
+      </c>
       <c r="D2443" t="s">
         <v>4856</v>
       </c>
@@ -58357,6 +58741,9 @@
       <c r="B2444" t="s">
         <v>4857</v>
       </c>
+      <c r="C2444" t="s">
+        <v>1</v>
+      </c>
       <c r="D2444" t="s">
         <v>4858</v>
       </c>
@@ -58365,6 +58752,9 @@
       <c r="B2445" t="s">
         <v>4859</v>
       </c>
+      <c r="C2445" t="s">
+        <v>1</v>
+      </c>
       <c r="D2445" t="s">
         <v>4860</v>
       </c>
@@ -58389,6 +58779,9 @@
       <c r="B2448" t="s">
         <v>4865</v>
       </c>
+      <c r="C2448" t="s">
+        <v>1</v>
+      </c>
       <c r="D2448" t="s">
         <v>4866</v>
       </c>
@@ -58429,6 +58822,9 @@
       <c r="B2453" t="s">
         <v>4875</v>
       </c>
+      <c r="C2453" t="s">
+        <v>1</v>
+      </c>
       <c r="D2453" t="s">
         <v>4876</v>
       </c>
@@ -58453,6 +58849,9 @@
       <c r="B2456" t="s">
         <v>4881</v>
       </c>
+      <c r="C2456" t="s">
+        <v>1</v>
+      </c>
       <c r="D2456" t="s">
         <v>4882</v>
       </c>
@@ -58485,6 +58884,9 @@
       <c r="B2460" t="s">
         <v>4889</v>
       </c>
+      <c r="C2460" t="s">
+        <v>1</v>
+      </c>
       <c r="D2460" t="s">
         <v>4890</v>
       </c>
@@ -58493,6 +58895,9 @@
       <c r="B2461" t="s">
         <v>4891</v>
       </c>
+      <c r="C2461" t="s">
+        <v>1</v>
+      </c>
       <c r="D2461" t="s">
         <v>4892</v>
       </c>
@@ -58509,6 +58914,9 @@
       <c r="B2463" t="s">
         <v>4895</v>
       </c>
+      <c r="C2463" t="s">
+        <v>1</v>
+      </c>
       <c r="D2463" t="s">
         <v>4896</v>
       </c>
@@ -58541,6 +58949,9 @@
       <c r="B2467" t="s">
         <v>4903</v>
       </c>
+      <c r="C2467" t="s">
+        <v>1</v>
+      </c>
       <c r="D2467" t="s">
         <v>4904</v>
       </c>
@@ -58549,6 +58960,9 @@
       <c r="B2468" t="s">
         <v>4905</v>
       </c>
+      <c r="C2468" t="s">
+        <v>1</v>
+      </c>
       <c r="D2468" t="s">
         <v>4906</v>
       </c>
@@ -58677,6 +59091,9 @@
       <c r="B2484" t="s">
         <v>4937</v>
       </c>
+      <c r="C2484" t="s">
+        <v>1</v>
+      </c>
       <c r="D2484" t="s">
         <v>4938</v>
       </c>
@@ -58685,6 +59102,9 @@
       <c r="B2485" t="s">
         <v>4939</v>
       </c>
+      <c r="C2485" t="s">
+        <v>1</v>
+      </c>
       <c r="D2485" t="s">
         <v>4940</v>
       </c>
@@ -58693,6 +59113,9 @@
       <c r="B2486" t="s">
         <v>4941</v>
       </c>
+      <c r="C2486" t="s">
+        <v>1</v>
+      </c>
       <c r="D2486" t="s">
         <v>4942</v>
       </c>
@@ -58709,6 +59132,9 @@
       <c r="B2488" t="s">
         <v>4945</v>
       </c>
+      <c r="C2488" t="s">
+        <v>1</v>
+      </c>
       <c r="D2488" t="s">
         <v>4946</v>
       </c>
@@ -58725,6 +59151,9 @@
       <c r="B2490" t="s">
         <v>4949</v>
       </c>
+      <c r="C2490" t="s">
+        <v>1</v>
+      </c>
       <c r="D2490" t="s">
         <v>4950</v>
       </c>
@@ -58765,6 +59194,9 @@
       <c r="B2495" t="s">
         <v>4959</v>
       </c>
+      <c r="C2495" t="s">
+        <v>1</v>
+      </c>
       <c r="D2495" t="s">
         <v>4960</v>
       </c>
@@ -58781,6 +59213,9 @@
       <c r="B2497" t="s">
         <v>4963</v>
       </c>
+      <c r="C2497" t="s">
+        <v>1</v>
+      </c>
       <c r="D2497" t="s">
         <v>4964</v>
       </c>
@@ -58821,6 +59256,9 @@
       <c r="B2502" t="s">
         <v>4973</v>
       </c>
+      <c r="C2502" t="s">
+        <v>1</v>
+      </c>
       <c r="D2502" t="s">
         <v>4974</v>
       </c>
@@ -58837,6 +59275,9 @@
       <c r="B2504" t="s">
         <v>4977</v>
       </c>
+      <c r="C2504" t="s">
+        <v>1</v>
+      </c>
       <c r="D2504" t="s">
         <v>4978</v>
       </c>
@@ -58853,6 +59294,9 @@
       <c r="B2506" t="s">
         <v>4981</v>
       </c>
+      <c r="C2506" t="s">
+        <v>1</v>
+      </c>
       <c r="D2506" t="s">
         <v>4982</v>
       </c>
@@ -58861,6 +59305,9 @@
       <c r="B2507" t="s">
         <v>4983</v>
       </c>
+      <c r="C2507" t="s">
+        <v>1</v>
+      </c>
       <c r="D2507" t="s">
         <v>4984</v>
       </c>
@@ -58885,6 +59332,9 @@
       <c r="B2510" t="s">
         <v>4989</v>
       </c>
+      <c r="C2510" t="s">
+        <v>1</v>
+      </c>
       <c r="D2510" t="s">
         <v>4990</v>
       </c>
@@ -58981,6 +59431,9 @@
       <c r="B2522" t="s">
         <v>5013</v>
       </c>
+      <c r="C2522" t="s">
+        <v>1</v>
+      </c>
       <c r="D2522" t="s">
         <v>5014</v>
       </c>
@@ -59005,6 +59458,9 @@
       <c r="B2525" t="s">
         <v>5019</v>
       </c>
+      <c r="C2525" t="s">
+        <v>1</v>
+      </c>
       <c r="D2525" t="s">
         <v>5020</v>
       </c>
@@ -59021,6 +59477,9 @@
       <c r="B2527" t="s">
         <v>5023</v>
       </c>
+      <c r="C2527" t="s">
+        <v>1</v>
+      </c>
       <c r="D2527" t="s">
         <v>5024</v>
       </c>
@@ -59045,6 +59504,9 @@
       <c r="B2530" t="s">
         <v>5029</v>
       </c>
+      <c r="C2530" t="s">
+        <v>1</v>
+      </c>
       <c r="D2530" t="s">
         <v>5030</v>
       </c>
@@ -59125,6 +59587,9 @@
       <c r="B2540" t="s">
         <v>5049</v>
       </c>
+      <c r="C2540" t="s">
+        <v>1</v>
+      </c>
       <c r="D2540" t="s">
         <v>5050</v>
       </c>
@@ -59133,6 +59598,9 @@
       <c r="B2541" t="s">
         <v>5051</v>
       </c>
+      <c r="C2541" t="s">
+        <v>1</v>
+      </c>
       <c r="D2541" t="s">
         <v>5052</v>
       </c>
@@ -59269,6 +59737,9 @@
       <c r="B2558" t="s">
         <v>5085</v>
       </c>
+      <c r="C2558" t="s">
+        <v>1</v>
+      </c>
       <c r="D2558" t="s">
         <v>5086</v>
       </c>
@@ -59293,6 +59764,9 @@
       <c r="B2561" t="s">
         <v>5091</v>
       </c>
+      <c r="C2561" t="s">
+        <v>1</v>
+      </c>
       <c r="D2561" t="s">
         <v>5092</v>
       </c>
@@ -59333,6 +59807,9 @@
       <c r="B2566" t="s">
         <v>5101</v>
       </c>
+      <c r="C2566" t="s">
+        <v>1</v>
+      </c>
       <c r="D2566" t="s">
         <v>5102</v>
       </c>
@@ -59349,6 +59826,9 @@
       <c r="B2568" t="s">
         <v>5105</v>
       </c>
+      <c r="C2568" t="s">
+        <v>1</v>
+      </c>
       <c r="D2568" t="s">
         <v>5106</v>
       </c>
@@ -59365,6 +59845,9 @@
       <c r="B2570" t="s">
         <v>5109</v>
       </c>
+      <c r="C2570" t="s">
+        <v>1</v>
+      </c>
       <c r="D2570" t="s">
         <v>5110</v>
       </c>
@@ -59381,6 +59864,9 @@
       <c r="B2572" t="s">
         <v>5113</v>
       </c>
+      <c r="C2572" t="s">
+        <v>1</v>
+      </c>
       <c r="D2572" t="s">
         <v>5114</v>
       </c>
@@ -59429,6 +59915,9 @@
       <c r="B2578" t="s">
         <v>5125</v>
       </c>
+      <c r="C2578" t="s">
+        <v>1</v>
+      </c>
       <c r="D2578" t="s">
         <v>5126</v>
       </c>
@@ -59437,6 +59926,9 @@
       <c r="B2579" t="s">
         <v>5127</v>
       </c>
+      <c r="C2579" t="s">
+        <v>1</v>
+      </c>
       <c r="D2579" t="s">
         <v>5128</v>
       </c>
@@ -59461,6 +59953,9 @@
       <c r="B2582" t="s">
         <v>5133</v>
       </c>
+      <c r="C2582" t="s">
+        <v>1</v>
+      </c>
       <c r="D2582" t="s">
         <v>5134</v>
       </c>
@@ -59621,6 +60116,9 @@
       <c r="B2602" t="s">
         <v>5173</v>
       </c>
+      <c r="C2602" t="s">
+        <v>1</v>
+      </c>
       <c r="D2602" t="s">
         <v>5174</v>
       </c>
@@ -59685,6 +60183,9 @@
       <c r="B2610" t="s">
         <v>5189</v>
       </c>
+      <c r="C2610" t="s">
+        <v>1</v>
+      </c>
       <c r="D2610" t="s">
         <v>5190</v>
       </c>
@@ -59757,6 +60258,9 @@
       <c r="B2619" t="s">
         <v>5207</v>
       </c>
+      <c r="C2619" t="s">
+        <v>1</v>
+      </c>
       <c r="D2619" t="s">
         <v>5208</v>
       </c>
@@ -59765,6 +60269,9 @@
       <c r="B2620" t="s">
         <v>5209</v>
       </c>
+      <c r="C2620" t="s">
+        <v>1</v>
+      </c>
       <c r="D2620" t="s">
         <v>5210</v>
       </c>
@@ -59813,6 +60320,9 @@
       <c r="B2626" t="s">
         <v>5221</v>
       </c>
+      <c r="C2626" t="s">
+        <v>1</v>
+      </c>
       <c r="D2626" t="s">
         <v>5222</v>
       </c>
@@ -59837,6 +60347,9 @@
       <c r="B2629" t="s">
         <v>5227</v>
       </c>
+      <c r="C2629" t="s">
+        <v>1</v>
+      </c>
       <c r="D2629" t="s">
         <v>5228</v>
       </c>
@@ -59869,6 +60382,9 @@
       <c r="B2633" t="s">
         <v>5235</v>
       </c>
+      <c r="C2633" t="s">
+        <v>1</v>
+      </c>
       <c r="D2633" t="s">
         <v>5236</v>
       </c>
@@ -59877,6 +60393,9 @@
       <c r="B2634" t="s">
         <v>5237</v>
       </c>
+      <c r="C2634" t="s">
+        <v>1</v>
+      </c>
       <c r="D2634" t="s">
         <v>5238</v>
       </c>
@@ -59949,6 +60468,9 @@
       <c r="B2643" t="s">
         <v>5255</v>
       </c>
+      <c r="C2643" t="s">
+        <v>1</v>
+      </c>
       <c r="D2643" t="s">
         <v>5256</v>
       </c>
@@ -59997,6 +60519,9 @@
       <c r="B2649" t="s">
         <v>5267</v>
       </c>
+      <c r="C2649" t="s">
+        <v>1</v>
+      </c>
       <c r="D2649" t="s">
         <v>5268</v>
       </c>
@@ -60013,6 +60538,9 @@
       <c r="B2651" t="s">
         <v>5271</v>
       </c>
+      <c r="C2651" t="s">
+        <v>1</v>
+      </c>
       <c r="D2651" t="s">
         <v>5272</v>
       </c>
@@ -60021,6 +60549,9 @@
       <c r="B2652" t="s">
         <v>5273</v>
       </c>
+      <c r="C2652" t="s">
+        <v>1</v>
+      </c>
       <c r="D2652" t="s">
         <v>5274</v>
       </c>
@@ -60037,6 +60568,9 @@
       <c r="B2654" t="s">
         <v>5277</v>
       </c>
+      <c r="C2654" t="s">
+        <v>1</v>
+      </c>
       <c r="D2654" t="s">
         <v>5278</v>
       </c>
@@ -60045,6 +60579,9 @@
       <c r="B2655" t="s">
         <v>5279</v>
       </c>
+      <c r="C2655" t="s">
+        <v>1</v>
+      </c>
       <c r="D2655" t="s">
         <v>5280</v>
       </c>
@@ -60085,6 +60622,9 @@
       <c r="B2660" t="s">
         <v>5289</v>
       </c>
+      <c r="C2660" t="s">
+        <v>1</v>
+      </c>
       <c r="D2660" t="s">
         <v>5290</v>
       </c>
@@ -60093,6 +60633,9 @@
       <c r="B2661" t="s">
         <v>5291</v>
       </c>
+      <c r="C2661" t="s">
+        <v>1</v>
+      </c>
       <c r="D2661" t="s">
         <v>5292</v>
       </c>
@@ -60117,6 +60660,9 @@
       <c r="B2664" t="s">
         <v>5297</v>
       </c>
+      <c r="C2664" t="s">
+        <v>1</v>
+      </c>
       <c r="D2664" t="s">
         <v>5298</v>
       </c>
@@ -60133,6 +60679,9 @@
       <c r="B2666" t="s">
         <v>5301</v>
       </c>
+      <c r="C2666" t="s">
+        <v>1</v>
+      </c>
       <c r="D2666" t="s">
         <v>5302</v>
       </c>
@@ -60141,6 +60690,9 @@
       <c r="B2667" t="s">
         <v>5303</v>
       </c>
+      <c r="C2667" t="s">
+        <v>1</v>
+      </c>
       <c r="D2667" t="s">
         <v>5304</v>
       </c>
@@ -60149,6 +60701,9 @@
       <c r="B2668" t="s">
         <v>5305</v>
       </c>
+      <c r="C2668" t="s">
+        <v>1</v>
+      </c>
       <c r="D2668" t="s">
         <v>5306</v>
       </c>
@@ -60165,6 +60720,9 @@
       <c r="B2670" t="s">
         <v>5309</v>
       </c>
+      <c r="C2670" t="s">
+        <v>1</v>
+      </c>
       <c r="D2670" t="s">
         <v>5310</v>
       </c>
@@ -60173,6 +60731,9 @@
       <c r="B2671" t="s">
         <v>5311</v>
       </c>
+      <c r="C2671" t="s">
+        <v>1</v>
+      </c>
       <c r="D2671" t="s">
         <v>5312</v>
       </c>
@@ -60181,6 +60742,9 @@
       <c r="B2672" t="s">
         <v>5313</v>
       </c>
+      <c r="C2672" t="s">
+        <v>1</v>
+      </c>
       <c r="D2672" t="s">
         <v>5314</v>
       </c>
@@ -60197,6 +60761,9 @@
       <c r="B2674" t="s">
         <v>5317</v>
       </c>
+      <c r="C2674" t="s">
+        <v>1</v>
+      </c>
       <c r="D2674" t="s">
         <v>5318</v>
       </c>
@@ -60205,6 +60772,9 @@
       <c r="B2675" t="s">
         <v>5319</v>
       </c>
+      <c r="C2675" t="s">
+        <v>1</v>
+      </c>
       <c r="D2675" t="s">
         <v>5320</v>
       </c>
@@ -60221,6 +60791,9 @@
       <c r="B2677" t="s">
         <v>5323</v>
       </c>
+      <c r="C2677" t="s">
+        <v>1</v>
+      </c>
       <c r="D2677" t="s">
         <v>5324</v>
       </c>
@@ -60229,6 +60802,9 @@
       <c r="B2678" t="s">
         <v>5325</v>
       </c>
+      <c r="C2678" t="s">
+        <v>1</v>
+      </c>
       <c r="D2678" t="s">
         <v>5326</v>
       </c>
@@ -60237,6 +60813,9 @@
       <c r="B2679" t="s">
         <v>5327</v>
       </c>
+      <c r="C2679" t="s">
+        <v>1</v>
+      </c>
       <c r="D2679" t="s">
         <v>5328</v>
       </c>
@@ -60245,6 +60824,9 @@
       <c r="B2680" t="s">
         <v>5329</v>
       </c>
+      <c r="C2680" t="s">
+        <v>1</v>
+      </c>
       <c r="D2680" t="s">
         <v>5330</v>
       </c>
@@ -60261,6 +60843,9 @@
       <c r="B2682" t="s">
         <v>5333</v>
       </c>
+      <c r="C2682" t="s">
+        <v>1</v>
+      </c>
       <c r="D2682" t="s">
         <v>5334</v>
       </c>
@@ -60277,6 +60862,9 @@
       <c r="B2684" t="s">
         <v>5337</v>
       </c>
+      <c r="C2684" t="s">
+        <v>1</v>
+      </c>
       <c r="D2684" t="s">
         <v>5338</v>
       </c>
@@ -60309,6 +60897,9 @@
       <c r="B2688" t="s">
         <v>5345</v>
       </c>
+      <c r="C2688" t="s">
+        <v>1</v>
+      </c>
       <c r="D2688" t="s">
         <v>5346</v>
       </c>
@@ -60317,6 +60908,9 @@
       <c r="B2689" t="s">
         <v>5347</v>
       </c>
+      <c r="C2689" t="s">
+        <v>1</v>
+      </c>
       <c r="D2689" t="s">
         <v>5348</v>
       </c>
@@ -60357,6 +60951,9 @@
       <c r="B2694" t="s">
         <v>5357</v>
       </c>
+      <c r="C2694" t="s">
+        <v>1</v>
+      </c>
       <c r="D2694" t="s">
         <v>5358</v>
       </c>
@@ -60365,6 +60962,9 @@
       <c r="B2695" t="s">
         <v>5359</v>
       </c>
+      <c r="C2695" t="s">
+        <v>1</v>
+      </c>
       <c r="D2695" t="s">
         <v>5360</v>
       </c>
@@ -60373,6 +60973,9 @@
       <c r="B2696" t="s">
         <v>5361</v>
       </c>
+      <c r="C2696" t="s">
+        <v>1</v>
+      </c>
       <c r="D2696" t="s">
         <v>5362</v>
       </c>
@@ -60389,6 +60992,9 @@
       <c r="B2698" t="s">
         <v>5365</v>
       </c>
+      <c r="C2698" t="s">
+        <v>1</v>
+      </c>
       <c r="D2698" t="s">
         <v>5366</v>
       </c>
@@ -60429,6 +61035,9 @@
       <c r="B2703" t="s">
         <v>5375</v>
       </c>
+      <c r="C2703" t="s">
+        <v>1</v>
+      </c>
       <c r="D2703" t="s">
         <v>5376</v>
       </c>
@@ -60469,6 +61078,9 @@
       <c r="B2708" t="s">
         <v>5385</v>
       </c>
+      <c r="C2708" t="s">
+        <v>1</v>
+      </c>
       <c r="D2708" t="s">
         <v>5386</v>
       </c>
@@ -60485,6 +61097,9 @@
       <c r="B2710" t="s">
         <v>5389</v>
       </c>
+      <c r="C2710" t="s">
+        <v>1</v>
+      </c>
       <c r="D2710" t="s">
         <v>5390</v>
       </c>
@@ -60493,6 +61108,9 @@
       <c r="B2711" t="s">
         <v>5391</v>
       </c>
+      <c r="C2711" t="s">
+        <v>1</v>
+      </c>
       <c r="D2711" t="s">
         <v>5392</v>
       </c>
@@ -60501,6 +61119,9 @@
       <c r="B2712" t="s">
         <v>5393</v>
       </c>
+      <c r="C2712" t="s">
+        <v>1</v>
+      </c>
       <c r="D2712" t="s">
         <v>5394</v>
       </c>
@@ -60509,6 +61130,9 @@
       <c r="B2713" t="s">
         <v>5395</v>
       </c>
+      <c r="C2713" t="s">
+        <v>1</v>
+      </c>
       <c r="D2713" t="s">
         <v>5396</v>
       </c>
@@ -60533,6 +61157,9 @@
       <c r="B2716" t="s">
         <v>5401</v>
       </c>
+      <c r="C2716" t="s">
+        <v>1</v>
+      </c>
       <c r="D2716" t="s">
         <v>5402</v>
       </c>
@@ -60541,6 +61168,9 @@
       <c r="B2717" t="s">
         <v>5403</v>
       </c>
+      <c r="C2717" t="s">
+        <v>1</v>
+      </c>
       <c r="D2717" t="s">
         <v>5404</v>
       </c>
@@ -60549,6 +61179,9 @@
       <c r="B2718" t="s">
         <v>5405</v>
       </c>
+      <c r="C2718" t="s">
+        <v>1</v>
+      </c>
       <c r="D2718" t="s">
         <v>5406</v>
       </c>
@@ -60565,6 +61198,9 @@
       <c r="B2720" t="s">
         <v>5409</v>
       </c>
+      <c r="C2720" t="s">
+        <v>1</v>
+      </c>
       <c r="D2720" t="s">
         <v>5410</v>
       </c>
@@ -60573,6 +61209,9 @@
       <c r="B2721" t="s">
         <v>5411</v>
       </c>
+      <c r="C2721" t="s">
+        <v>1</v>
+      </c>
       <c r="D2721" t="s">
         <v>5412</v>
       </c>
@@ -60589,6 +61228,9 @@
       <c r="B2723" t="s">
         <v>5415</v>
       </c>
+      <c r="C2723" t="s">
+        <v>1</v>
+      </c>
       <c r="D2723" t="s">
         <v>5416</v>
       </c>
@@ -60605,6 +61247,9 @@
       <c r="B2725" t="s">
         <v>5419</v>
       </c>
+      <c r="C2725" t="s">
+        <v>1</v>
+      </c>
       <c r="D2725" t="s">
         <v>5420</v>
       </c>
@@ -60621,6 +61266,9 @@
       <c r="B2727" t="s">
         <v>5423</v>
       </c>
+      <c r="C2727" t="s">
+        <v>1</v>
+      </c>
       <c r="D2727" t="s">
         <v>5424</v>
       </c>
@@ -60629,6 +61277,9 @@
       <c r="B2728" t="s">
         <v>5425</v>
       </c>
+      <c r="C2728" t="s">
+        <v>1</v>
+      </c>
       <c r="D2728" t="s">
         <v>5426</v>
       </c>
@@ -60637,6 +61288,9 @@
       <c r="B2729" t="s">
         <v>5427</v>
       </c>
+      <c r="C2729" t="s">
+        <v>1</v>
+      </c>
       <c r="D2729" t="s">
         <v>5428</v>
       </c>
@@ -60653,6 +61307,9 @@
       <c r="B2731" t="s">
         <v>5431</v>
       </c>
+      <c r="C2731" t="s">
+        <v>1</v>
+      </c>
       <c r="D2731" t="s">
         <v>5432</v>
       </c>
@@ -60669,6 +61326,9 @@
       <c r="B2733" t="s">
         <v>5435</v>
       </c>
+      <c r="C2733" t="s">
+        <v>1</v>
+      </c>
       <c r="D2733" t="s">
         <v>5436</v>
       </c>
@@ -60677,6 +61337,9 @@
       <c r="B2734" t="s">
         <v>5437</v>
       </c>
+      <c r="C2734" t="s">
+        <v>1</v>
+      </c>
       <c r="D2734" t="s">
         <v>5438</v>
       </c>
@@ -60693,6 +61356,9 @@
       <c r="B2736" t="s">
         <v>5441</v>
       </c>
+      <c r="C2736" t="s">
+        <v>1</v>
+      </c>
       <c r="D2736" t="s">
         <v>5442</v>
       </c>
@@ -60709,6 +61375,9 @@
       <c r="B2738" t="s">
         <v>5445</v>
       </c>
+      <c r="C2738" t="s">
+        <v>1</v>
+      </c>
       <c r="D2738" t="s">
         <v>5446</v>
       </c>
@@ -60757,6 +61426,9 @@
       <c r="B2744" t="s">
         <v>5457</v>
       </c>
+      <c r="C2744" t="s">
+        <v>1</v>
+      </c>
       <c r="D2744" t="s">
         <v>5458</v>
       </c>
@@ -60765,6 +61437,9 @@
       <c r="B2745" t="s">
         <v>5459</v>
       </c>
+      <c r="C2745" t="s">
+        <v>1</v>
+      </c>
       <c r="D2745" t="s">
         <v>5460</v>
       </c>
@@ -60781,6 +61456,9 @@
       <c r="B2747" t="s">
         <v>5463</v>
       </c>
+      <c r="C2747" t="s">
+        <v>1</v>
+      </c>
       <c r="D2747" t="s">
         <v>5464</v>
       </c>
@@ -60789,6 +61467,9 @@
       <c r="B2748" t="s">
         <v>5465</v>
       </c>
+      <c r="C2748" t="s">
+        <v>1</v>
+      </c>
       <c r="D2748" t="s">
         <v>5466</v>
       </c>
@@ -60805,6 +61486,9 @@
       <c r="B2750" t="s">
         <v>5469</v>
       </c>
+      <c r="C2750" t="s">
+        <v>1</v>
+      </c>
       <c r="D2750" t="s">
         <v>5470</v>
       </c>
@@ -60813,6 +61497,9 @@
       <c r="B2751" t="s">
         <v>5471</v>
       </c>
+      <c r="C2751" t="s">
+        <v>1</v>
+      </c>
       <c r="D2751" t="s">
         <v>5472</v>
       </c>
@@ -60821,6 +61508,9 @@
       <c r="B2752" t="s">
         <v>5473</v>
       </c>
+      <c r="C2752" t="s">
+        <v>1</v>
+      </c>
       <c r="D2752" t="s">
         <v>5474</v>
       </c>
@@ -60829,6 +61519,9 @@
       <c r="B2753" t="s">
         <v>5475</v>
       </c>
+      <c r="C2753" t="s">
+        <v>1</v>
+      </c>
       <c r="D2753" t="s">
         <v>5476</v>
       </c>
@@ -60845,6 +61538,9 @@
       <c r="B2755" t="s">
         <v>5479</v>
       </c>
+      <c r="C2755" t="s">
+        <v>1</v>
+      </c>
       <c r="D2755" t="s">
         <v>5480</v>
       </c>
@@ -60853,6 +61549,9 @@
       <c r="B2756" t="s">
         <v>5481</v>
       </c>
+      <c r="C2756" t="s">
+        <v>1</v>
+      </c>
       <c r="D2756" t="s">
         <v>5482</v>
       </c>
@@ -60877,6 +61576,9 @@
       <c r="B2759" t="s">
         <v>5487</v>
       </c>
+      <c r="C2759" t="s">
+        <v>1</v>
+      </c>
       <c r="D2759" t="s">
         <v>5488</v>
       </c>
@@ -60885,6 +61587,9 @@
       <c r="B2760" t="s">
         <v>5489</v>
       </c>
+      <c r="C2760" t="s">
+        <v>1</v>
+      </c>
       <c r="D2760" t="s">
         <v>5490</v>
       </c>
@@ -60909,6 +61614,9 @@
       <c r="B2763" t="s">
         <v>5495</v>
       </c>
+      <c r="C2763" t="s">
+        <v>1</v>
+      </c>
       <c r="D2763" t="s">
         <v>5496</v>
       </c>
@@ -60917,6 +61625,9 @@
       <c r="B2764" t="s">
         <v>5497</v>
       </c>
+      <c r="C2764" t="s">
+        <v>1</v>
+      </c>
       <c r="D2764" t="s">
         <v>5498</v>
       </c>
@@ -60925,6 +61636,9 @@
       <c r="B2765" t="s">
         <v>5499</v>
       </c>
+      <c r="C2765" t="s">
+        <v>1</v>
+      </c>
       <c r="D2765" t="s">
         <v>5500</v>
       </c>
@@ -60933,6 +61647,9 @@
       <c r="B2766" t="s">
         <v>5501</v>
       </c>
+      <c r="C2766" t="s">
+        <v>1</v>
+      </c>
       <c r="D2766" t="s">
         <v>5502</v>
       </c>
@@ -60949,6 +61666,9 @@
       <c r="B2768" t="s">
         <v>5505</v>
       </c>
+      <c r="C2768" t="s">
+        <v>1</v>
+      </c>
       <c r="D2768" t="s">
         <v>5506</v>
       </c>
@@ -60965,6 +61685,9 @@
       <c r="B2770" t="s">
         <v>5509</v>
       </c>
+      <c r="C2770" t="s">
+        <v>1</v>
+      </c>
       <c r="D2770" t="s">
         <v>5510</v>
       </c>
@@ -60989,6 +61712,9 @@
       <c r="B2773" t="s">
         <v>5515</v>
       </c>
+      <c r="C2773" t="s">
+        <v>1</v>
+      </c>
       <c r="D2773" t="s">
         <v>5516</v>
       </c>
@@ -60997,6 +61723,9 @@
       <c r="B2774" t="s">
         <v>5517</v>
       </c>
+      <c r="C2774" t="s">
+        <v>1</v>
+      </c>
       <c r="D2774" t="s">
         <v>5518</v>
       </c>
@@ -61013,6 +61742,9 @@
       <c r="B2776" t="s">
         <v>5521</v>
       </c>
+      <c r="C2776" t="s">
+        <v>1</v>
+      </c>
       <c r="D2776" t="s">
         <v>5522</v>
       </c>
@@ -61021,6 +61753,9 @@
       <c r="B2777" t="s">
         <v>5523</v>
       </c>
+      <c r="C2777" t="s">
+        <v>1</v>
+      </c>
       <c r="D2777" t="s">
         <v>5524</v>
       </c>
@@ -61029,6 +61764,9 @@
       <c r="B2778" t="s">
         <v>5525</v>
       </c>
+      <c r="C2778" t="s">
+        <v>1</v>
+      </c>
       <c r="D2778" t="s">
         <v>5526</v>
       </c>
@@ -61037,6 +61775,9 @@
       <c r="B2779" t="s">
         <v>5527</v>
       </c>
+      <c r="C2779" t="s">
+        <v>1</v>
+      </c>
       <c r="D2779" t="s">
         <v>5528</v>
       </c>
@@ -61045,6 +61786,9 @@
       <c r="B2780" t="s">
         <v>5529</v>
       </c>
+      <c r="C2780" t="s">
+        <v>1</v>
+      </c>
       <c r="D2780" t="s">
         <v>5530</v>
       </c>
@@ -61069,6 +61813,9 @@
       <c r="B2783" t="s">
         <v>5535</v>
       </c>
+      <c r="C2783" t="s">
+        <v>1</v>
+      </c>
       <c r="D2783" t="s">
         <v>5536</v>
       </c>
@@ -61093,6 +61840,9 @@
       <c r="B2786" t="s">
         <v>5541</v>
       </c>
+      <c r="C2786" t="s">
+        <v>1</v>
+      </c>
       <c r="D2786" t="s">
         <v>5542</v>
       </c>
@@ -61101,6 +61851,9 @@
       <c r="B2787" t="s">
         <v>5543</v>
       </c>
+      <c r="C2787" t="s">
+        <v>1</v>
+      </c>
       <c r="D2787" t="s">
         <v>5544</v>
       </c>
@@ -61125,6 +61878,9 @@
       <c r="B2790" t="s">
         <v>5549</v>
       </c>
+      <c r="C2790" t="s">
+        <v>1</v>
+      </c>
       <c r="D2790" t="s">
         <v>5550</v>
       </c>
@@ -61133,6 +61889,9 @@
       <c r="B2791" t="s">
         <v>5551</v>
       </c>
+      <c r="C2791" t="s">
+        <v>1</v>
+      </c>
       <c r="D2791" t="s">
         <v>5552</v>
       </c>
@@ -61165,6 +61924,9 @@
       <c r="B2795" t="s">
         <v>5559</v>
       </c>
+      <c r="C2795" t="s">
+        <v>1</v>
+      </c>
       <c r="D2795" t="s">
         <v>5560</v>
       </c>
@@ -61173,6 +61935,9 @@
       <c r="B2796" t="s">
         <v>5561</v>
       </c>
+      <c r="C2796" t="s">
+        <v>1</v>
+      </c>
       <c r="D2796" t="s">
         <v>5562</v>
       </c>
@@ -61205,6 +61970,9 @@
       <c r="B2800" t="s">
         <v>5569</v>
       </c>
+      <c r="C2800" t="s">
+        <v>1</v>
+      </c>
       <c r="D2800" t="s">
         <v>5570</v>
       </c>
@@ -61213,6 +61981,9 @@
       <c r="B2801" t="s">
         <v>5571</v>
       </c>
+      <c r="C2801" t="s">
+        <v>1</v>
+      </c>
       <c r="D2801" t="s">
         <v>5572</v>
       </c>
@@ -61221,6 +61992,9 @@
       <c r="B2802" t="s">
         <v>5573</v>
       </c>
+      <c r="C2802" t="s">
+        <v>1</v>
+      </c>
       <c r="D2802" t="s">
         <v>5574</v>
       </c>
@@ -61237,6 +62011,9 @@
       <c r="B2804" t="s">
         <v>5577</v>
       </c>
+      <c r="C2804" t="s">
+        <v>1</v>
+      </c>
       <c r="D2804" t="s">
         <v>5578</v>
       </c>
@@ -61245,6 +62022,9 @@
       <c r="B2805" t="s">
         <v>5579</v>
       </c>
+      <c r="C2805" t="s">
+        <v>1</v>
+      </c>
       <c r="D2805" t="s">
         <v>5580</v>
       </c>
@@ -61269,6 +62049,9 @@
       <c r="B2808" t="s">
         <v>5585</v>
       </c>
+      <c r="C2808" t="s">
+        <v>1</v>
+      </c>
       <c r="D2808" t="s">
         <v>5586</v>
       </c>
@@ -61301,6 +62084,9 @@
       <c r="B2812" t="s">
         <v>5593</v>
       </c>
+      <c r="C2812" t="s">
+        <v>1</v>
+      </c>
       <c r="D2812" t="s">
         <v>5594</v>
       </c>
@@ -61309,6 +62095,9 @@
       <c r="B2813" t="s">
         <v>5595</v>
       </c>
+      <c r="C2813" t="s">
+        <v>1</v>
+      </c>
       <c r="D2813" t="s">
         <v>5596</v>
       </c>
@@ -61317,6 +62106,9 @@
       <c r="B2814" t="s">
         <v>5597</v>
       </c>
+      <c r="C2814" t="s">
+        <v>1</v>
+      </c>
       <c r="D2814" t="s">
         <v>5598</v>
       </c>
@@ -61325,6 +62117,9 @@
       <c r="B2815" t="s">
         <v>5599</v>
       </c>
+      <c r="C2815" t="s">
+        <v>1</v>
+      </c>
       <c r="D2815" t="s">
         <v>5600</v>
       </c>
@@ -61333,6 +62128,9 @@
       <c r="B2816" t="s">
         <v>5601</v>
       </c>
+      <c r="C2816" t="s">
+        <v>1</v>
+      </c>
       <c r="D2816" t="s">
         <v>5602</v>
       </c>
@@ -61341,6 +62139,9 @@
       <c r="B2817" t="s">
         <v>5603</v>
       </c>
+      <c r="C2817" t="s">
+        <v>1</v>
+      </c>
       <c r="D2817" t="s">
         <v>5604</v>
       </c>
@@ -61357,6 +62158,9 @@
       <c r="B2819" t="s">
         <v>5607</v>
       </c>
+      <c r="C2819" t="s">
+        <v>1</v>
+      </c>
       <c r="D2819" t="s">
         <v>5608</v>
       </c>
@@ -61365,6 +62169,9 @@
       <c r="B2820" t="s">
         <v>5609</v>
       </c>
+      <c r="C2820" t="s">
+        <v>1</v>
+      </c>
       <c r="D2820" t="s">
         <v>5610</v>
       </c>
@@ -61381,6 +62188,9 @@
       <c r="B2822" t="s">
         <v>5613</v>
       </c>
+      <c r="C2822" t="s">
+        <v>1</v>
+      </c>
       <c r="D2822" t="s">
         <v>5614</v>
       </c>
@@ -61389,6 +62199,9 @@
       <c r="B2823" t="s">
         <v>5615</v>
       </c>
+      <c r="C2823" t="s">
+        <v>1</v>
+      </c>
       <c r="D2823" t="s">
         <v>5616</v>
       </c>
@@ -61437,6 +62250,9 @@
       <c r="B2829" t="s">
         <v>5627</v>
       </c>
+      <c r="C2829" t="s">
+        <v>1</v>
+      </c>
       <c r="D2829" t="s">
         <v>5628</v>
       </c>
@@ -61445,6 +62261,9 @@
       <c r="B2830" t="s">
         <v>5629</v>
       </c>
+      <c r="C2830" t="s">
+        <v>1</v>
+      </c>
       <c r="D2830" t="s">
         <v>5630</v>
       </c>
@@ -61469,6 +62288,9 @@
       <c r="B2833" t="s">
         <v>5635</v>
       </c>
+      <c r="C2833" t="s">
+        <v>1</v>
+      </c>
       <c r="D2833" t="s">
         <v>5636</v>
       </c>
@@ -61485,6 +62307,9 @@
       <c r="B2835" t="s">
         <v>5639</v>
       </c>
+      <c r="C2835" t="s">
+        <v>1</v>
+      </c>
       <c r="D2835" t="s">
         <v>5640</v>
       </c>
@@ -61493,6 +62318,9 @@
       <c r="B2836" t="s">
         <v>5641</v>
       </c>
+      <c r="C2836" t="s">
+        <v>1</v>
+      </c>
       <c r="D2836" t="s">
         <v>5642</v>
       </c>
@@ -61501,6 +62329,9 @@
       <c r="B2837" t="s">
         <v>5643</v>
       </c>
+      <c r="C2837" t="s">
+        <v>1</v>
+      </c>
       <c r="D2837" t="s">
         <v>5644</v>
       </c>
@@ -61509,6 +62340,9 @@
       <c r="B2838" t="s">
         <v>5645</v>
       </c>
+      <c r="C2838" t="s">
+        <v>1</v>
+      </c>
       <c r="D2838" t="s">
         <v>5646</v>
       </c>
@@ -61517,6 +62351,9 @@
       <c r="B2839" t="s">
         <v>5647</v>
       </c>
+      <c r="C2839" t="s">
+        <v>1</v>
+      </c>
       <c r="D2839" t="s">
         <v>5648</v>
       </c>
@@ -61525,6 +62362,9 @@
       <c r="B2840" t="s">
         <v>5649</v>
       </c>
+      <c r="C2840" t="s">
+        <v>1</v>
+      </c>
       <c r="D2840" t="s">
         <v>5650</v>
       </c>
@@ -61541,6 +62381,9 @@
       <c r="B2842" t="s">
         <v>5653</v>
       </c>
+      <c r="C2842" t="s">
+        <v>1</v>
+      </c>
       <c r="D2842" t="s">
         <v>5654</v>
       </c>
@@ -61557,6 +62400,9 @@
       <c r="B2844" t="s">
         <v>5657</v>
       </c>
+      <c r="C2844" t="s">
+        <v>1</v>
+      </c>
       <c r="D2844" t="s">
         <v>5658</v>
       </c>
@@ -61597,6 +62443,9 @@
       <c r="B2849" t="s">
         <v>5667</v>
       </c>
+      <c r="C2849" t="s">
+        <v>1</v>
+      </c>
       <c r="D2849" t="s">
         <v>5668</v>
       </c>
@@ -61605,6 +62454,9 @@
       <c r="B2850" t="s">
         <v>5669</v>
       </c>
+      <c r="C2850" t="s">
+        <v>1</v>
+      </c>
       <c r="D2850" t="s">
         <v>5670</v>
       </c>
@@ -61621,6 +62473,9 @@
       <c r="B2852" t="s">
         <v>5673</v>
       </c>
+      <c r="C2852" t="s">
+        <v>1</v>
+      </c>
       <c r="D2852" t="s">
         <v>5674</v>
       </c>
@@ -61645,6 +62500,9 @@
       <c r="B2855" t="s">
         <v>5679</v>
       </c>
+      <c r="C2855" t="s">
+        <v>1</v>
+      </c>
       <c r="D2855" t="s">
         <v>5680</v>
       </c>
@@ -61653,6 +62511,9 @@
       <c r="B2856" t="s">
         <v>5681</v>
       </c>
+      <c r="C2856" t="s">
+        <v>1</v>
+      </c>
       <c r="D2856" t="s">
         <v>5682</v>
       </c>
@@ -61661,6 +62522,9 @@
       <c r="B2857" t="s">
         <v>5683</v>
       </c>
+      <c r="C2857" t="s">
+        <v>1</v>
+      </c>
       <c r="D2857" t="s">
         <v>5684</v>
       </c>
@@ -61669,6 +62533,9 @@
       <c r="B2858" t="s">
         <v>5685</v>
       </c>
+      <c r="C2858" t="s">
+        <v>1</v>
+      </c>
       <c r="D2858" t="s">
         <v>5686</v>
       </c>
@@ -61677,6 +62544,9 @@
       <c r="B2859" t="s">
         <v>5687</v>
       </c>
+      <c r="C2859" t="s">
+        <v>1</v>
+      </c>
       <c r="D2859" t="s">
         <v>5688</v>
       </c>
@@ -61685,6 +62555,9 @@
       <c r="B2860" t="s">
         <v>5689</v>
       </c>
+      <c r="C2860" t="s">
+        <v>1</v>
+      </c>
       <c r="D2860" t="s">
         <v>5690</v>
       </c>
@@ -61693,6 +62566,9 @@
       <c r="B2861" t="s">
         <v>5691</v>
       </c>
+      <c r="C2861" t="s">
+        <v>1</v>
+      </c>
       <c r="D2861" t="s">
         <v>5692</v>
       </c>
@@ -61733,6 +62609,9 @@
       <c r="B2866" t="s">
         <v>5701</v>
       </c>
+      <c r="C2866" t="s">
+        <v>1</v>
+      </c>
       <c r="D2866" t="s">
         <v>5702</v>
       </c>
@@ -61749,6 +62628,9 @@
       <c r="B2868" t="s">
         <v>5705</v>
       </c>
+      <c r="C2868" t="s">
+        <v>1</v>
+      </c>
       <c r="D2868" t="s">
         <v>5706</v>
       </c>
@@ -61773,6 +62655,9 @@
       <c r="B2871" t="s">
         <v>5711</v>
       </c>
+      <c r="C2871" t="s">
+        <v>1</v>
+      </c>
       <c r="D2871" t="s">
         <v>5712</v>
       </c>
@@ -61789,6 +62674,9 @@
       <c r="B2873" t="s">
         <v>5715</v>
       </c>
+      <c r="C2873" t="s">
+        <v>1</v>
+      </c>
       <c r="D2873" t="s">
         <v>5716</v>
       </c>
@@ -61797,6 +62685,9 @@
       <c r="B2874" t="s">
         <v>5717</v>
       </c>
+      <c r="C2874" t="s">
+        <v>1</v>
+      </c>
       <c r="D2874" t="s">
         <v>5718</v>
       </c>
@@ -61805,6 +62696,9 @@
       <c r="B2875" t="s">
         <v>5719</v>
       </c>
+      <c r="C2875" t="s">
+        <v>1</v>
+      </c>
       <c r="D2875" t="s">
         <v>5720</v>
       </c>
@@ -61813,6 +62707,9 @@
       <c r="B2876" t="s">
         <v>5721</v>
       </c>
+      <c r="C2876" t="s">
+        <v>1</v>
+      </c>
       <c r="D2876" t="s">
         <v>5722</v>
       </c>
@@ -61829,6 +62726,9 @@
       <c r="B2878" t="s">
         <v>5725</v>
       </c>
+      <c r="C2878" t="s">
+        <v>1</v>
+      </c>
       <c r="D2878" t="s">
         <v>5726</v>
       </c>
@@ -61853,6 +62753,9 @@
       <c r="B2881" t="s">
         <v>5731</v>
       </c>
+      <c r="C2881" t="s">
+        <v>1</v>
+      </c>
       <c r="D2881" t="s">
         <v>5732</v>
       </c>
@@ -61861,6 +62764,9 @@
       <c r="B2882" t="s">
         <v>5733</v>
       </c>
+      <c r="C2882" t="s">
+        <v>1</v>
+      </c>
       <c r="D2882" t="s">
         <v>5734</v>
       </c>
@@ -61925,6 +62831,9 @@
       <c r="B2890" t="s">
         <v>5749</v>
       </c>
+      <c r="C2890" t="s">
+        <v>1</v>
+      </c>
       <c r="D2890" t="s">
         <v>5750</v>
       </c>
@@ -61933,6 +62842,9 @@
       <c r="B2891" t="s">
         <v>5751</v>
       </c>
+      <c r="C2891" t="s">
+        <v>1</v>
+      </c>
       <c r="D2891" t="s">
         <v>5752</v>
       </c>
@@ -61949,6 +62861,9 @@
       <c r="B2893" t="s">
         <v>5755</v>
       </c>
+      <c r="C2893" t="s">
+        <v>1</v>
+      </c>
       <c r="D2893" t="s">
         <v>5756</v>
       </c>
@@ -61973,6 +62888,9 @@
       <c r="B2896" t="s">
         <v>5761</v>
       </c>
+      <c r="C2896" t="s">
+        <v>1</v>
+      </c>
       <c r="D2896" t="s">
         <v>5762</v>
       </c>
@@ -61981,6 +62899,9 @@
       <c r="B2897" t="s">
         <v>5763</v>
       </c>
+      <c r="C2897" t="s">
+        <v>1</v>
+      </c>
       <c r="D2897" t="s">
         <v>5764</v>
       </c>
@@ -61989,6 +62910,9 @@
       <c r="B2898" t="s">
         <v>5765</v>
       </c>
+      <c r="C2898" t="s">
+        <v>1</v>
+      </c>
       <c r="D2898" t="s">
         <v>5766</v>
       </c>
@@ -61997,6 +62921,9 @@
       <c r="B2899" t="s">
         <v>5767</v>
       </c>
+      <c r="C2899" t="s">
+        <v>1</v>
+      </c>
       <c r="D2899" t="s">
         <v>5768</v>
       </c>
@@ -62005,6 +62932,9 @@
       <c r="B2900" t="s">
         <v>5769</v>
       </c>
+      <c r="C2900" t="s">
+        <v>1</v>
+      </c>
       <c r="D2900" t="s">
         <v>5770</v>
       </c>
@@ -62013,6 +62943,9 @@
       <c r="B2901" t="s">
         <v>5771</v>
       </c>
+      <c r="C2901" t="s">
+        <v>1</v>
+      </c>
       <c r="D2901" t="s">
         <v>5772</v>
       </c>
@@ -62021,6 +62954,9 @@
       <c r="B2902" t="s">
         <v>5773</v>
       </c>
+      <c r="C2902" t="s">
+        <v>1</v>
+      </c>
       <c r="D2902" t="s">
         <v>5774</v>
       </c>
@@ -62029,6 +62965,9 @@
       <c r="B2903" t="s">
         <v>5775</v>
       </c>
+      <c r="C2903" t="s">
+        <v>1</v>
+      </c>
       <c r="D2903" t="s">
         <v>5776</v>
       </c>
@@ -62037,6 +62976,9 @@
       <c r="B2904" t="s">
         <v>5777</v>
       </c>
+      <c r="C2904" t="s">
+        <v>1</v>
+      </c>
       <c r="D2904" t="s">
         <v>5778</v>
       </c>
@@ -62045,6 +62987,9 @@
       <c r="B2905" t="s">
         <v>5779</v>
       </c>
+      <c r="C2905" t="s">
+        <v>1</v>
+      </c>
       <c r="D2905" t="s">
         <v>5780</v>
       </c>
@@ -62061,6 +63006,9 @@
       <c r="B2907" t="s">
         <v>5783</v>
       </c>
+      <c r="C2907" t="s">
+        <v>1</v>
+      </c>
       <c r="D2907" t="s">
         <v>5784</v>
       </c>
@@ -62077,6 +63025,9 @@
       <c r="B2909" t="s">
         <v>5787</v>
       </c>
+      <c r="C2909" t="s">
+        <v>1</v>
+      </c>
       <c r="D2909" t="s">
         <v>5788</v>
       </c>
@@ -62085,6 +63036,9 @@
       <c r="B2910" t="s">
         <v>5789</v>
       </c>
+      <c r="C2910" t="s">
+        <v>1</v>
+      </c>
       <c r="D2910" t="s">
         <v>5790</v>
       </c>
@@ -62093,6 +63047,9 @@
       <c r="B2911" t="s">
         <v>5791</v>
       </c>
+      <c r="C2911" t="s">
+        <v>1</v>
+      </c>
       <c r="D2911" t="s">
         <v>5792</v>
       </c>
@@ -62118,29 +63075,38 @@
         <v>5797</v>
       </c>
       <c r="D2914" t="s">
-        <v>4028</v>
+        <v>5798</v>
       </c>
     </row>
     <row r="2915" spans="2:4">
       <c r="B2915" t="s">
-        <v>5798</v>
+        <v>5799</v>
+      </c>
+      <c r="C2915" t="s">
+        <v>1</v>
       </c>
       <c r="D2915" t="s">
-        <v>5799</v>
+        <v>5800</v>
       </c>
     </row>
     <row r="2916" spans="2:4">
       <c r="B2916" t="s">
-        <v>5800</v>
+        <v>5801</v>
+      </c>
+      <c r="C2916" t="s">
+        <v>1</v>
       </c>
       <c r="D2916" t="s">
-        <v>5801</v>
+        <v>4028</v>
       </c>
     </row>
     <row r="2917" spans="2:4">
       <c r="B2917" t="s">
         <v>5802</v>
       </c>
+      <c r="C2917" t="s">
+        <v>1</v>
+      </c>
       <c r="D2917" t="s">
         <v>5803</v>
       </c>
@@ -62173,6 +63139,9 @@
       <c r="B2921" t="s">
         <v>5810</v>
       </c>
+      <c r="C2921" t="s">
+        <v>1</v>
+      </c>
       <c r="D2921" t="s">
         <v>5811</v>
       </c>
@@ -62181,6 +63150,9 @@
       <c r="B2922" t="s">
         <v>5812</v>
       </c>
+      <c r="C2922" t="s">
+        <v>1</v>
+      </c>
       <c r="D2922" t="s">
         <v>5813</v>
       </c>
@@ -62205,6 +63177,9 @@
       <c r="B2925" t="s">
         <v>5818</v>
       </c>
+      <c r="C2925" t="s">
+        <v>1</v>
+      </c>
       <c r="D2925" t="s">
         <v>5819</v>
       </c>
@@ -62213,6 +63188,9 @@
       <c r="B2926" t="s">
         <v>5820</v>
       </c>
+      <c r="C2926" t="s">
+        <v>1</v>
+      </c>
       <c r="D2926" t="s">
         <v>5821</v>
       </c>
@@ -62221,6 +63199,9 @@
       <c r="B2927" t="s">
         <v>5822</v>
       </c>
+      <c r="C2927" t="s">
+        <v>1</v>
+      </c>
       <c r="D2927" t="s">
         <v>5823</v>
       </c>
@@ -62229,6 +63210,9 @@
       <c r="B2928" t="s">
         <v>5824</v>
       </c>
+      <c r="C2928" t="s">
+        <v>1</v>
+      </c>
       <c r="D2928" t="s">
         <v>5825</v>
       </c>
@@ -62237,6 +63221,9 @@
       <c r="B2929" t="s">
         <v>5826</v>
       </c>
+      <c r="C2929" t="s">
+        <v>1</v>
+      </c>
       <c r="D2929" t="s">
         <v>5827</v>
       </c>
@@ -62301,6 +63288,9 @@
       <c r="B2937" t="s">
         <v>5842</v>
       </c>
+      <c r="C2937" t="s">
+        <v>1</v>
+      </c>
       <c r="D2937" t="s">
         <v>5843</v>
       </c>
@@ -62317,6 +63307,9 @@
       <c r="B2939" t="s">
         <v>5846</v>
       </c>
+      <c r="C2939" t="s">
+        <v>1</v>
+      </c>
       <c r="D2939" t="s">
         <v>5847</v>
       </c>
@@ -62325,6 +63318,9 @@
       <c r="B2940" t="s">
         <v>5848</v>
       </c>
+      <c r="C2940" t="s">
+        <v>1</v>
+      </c>
       <c r="D2940" t="s">
         <v>5849</v>
       </c>
@@ -62333,6 +63329,9 @@
       <c r="B2941" t="s">
         <v>5850</v>
       </c>
+      <c r="C2941" t="s">
+        <v>1</v>
+      </c>
       <c r="D2941" t="s">
         <v>5851</v>
       </c>
@@ -62365,6 +63364,9 @@
       <c r="B2945" t="s">
         <v>5858</v>
       </c>
+      <c r="C2945" t="s">
+        <v>1</v>
+      </c>
       <c r="D2945" t="s">
         <v>5859</v>
       </c>
@@ -62373,6 +63375,9 @@
       <c r="B2946" t="s">
         <v>5860</v>
       </c>
+      <c r="C2946" t="s">
+        <v>1</v>
+      </c>
       <c r="D2946" t="s">
         <v>5861</v>
       </c>
@@ -62381,6 +63386,9 @@
       <c r="B2947" t="s">
         <v>5862</v>
       </c>
+      <c r="C2947" t="s">
+        <v>1</v>
+      </c>
       <c r="D2947" t="s">
         <v>5863</v>
       </c>
@@ -62389,6 +63397,9 @@
       <c r="B2948" t="s">
         <v>5864</v>
       </c>
+      <c r="C2948" t="s">
+        <v>1</v>
+      </c>
       <c r="D2948" t="s">
         <v>5865</v>
       </c>
@@ -62413,6 +63424,9 @@
       <c r="B2951" t="s">
         <v>5870</v>
       </c>
+      <c r="C2951" t="s">
+        <v>1</v>
+      </c>
       <c r="D2951" t="s">
         <v>5871</v>
       </c>
@@ -62437,6 +63451,9 @@
       <c r="B2954" t="s">
         <v>5876</v>
       </c>
+      <c r="C2954" t="s">
+        <v>1</v>
+      </c>
       <c r="D2954" t="s">
         <v>5877</v>
       </c>
@@ -62469,6 +63486,9 @@
       <c r="B2958" t="s">
         <v>5884</v>
       </c>
+      <c r="C2958" t="s">
+        <v>1</v>
+      </c>
       <c r="D2958" t="s">
         <v>5885</v>
       </c>
@@ -62509,6 +63529,9 @@
       <c r="B2963" t="s">
         <v>5894</v>
       </c>
+      <c r="C2963" t="s">
+        <v>1</v>
+      </c>
       <c r="D2963" t="s">
         <v>5895</v>
       </c>
@@ -62517,6 +63540,9 @@
       <c r="B2964" t="s">
         <v>5896</v>
       </c>
+      <c r="C2964" t="s">
+        <v>1</v>
+      </c>
       <c r="D2964" t="s">
         <v>5897</v>
       </c>
@@ -62541,6 +63567,9 @@
       <c r="B2967" t="s">
         <v>5902</v>
       </c>
+      <c r="C2967" t="s">
+        <v>1</v>
+      </c>
       <c r="D2967" t="s">
         <v>5903</v>
       </c>
@@ -62573,6 +63602,9 @@
       <c r="B2971" t="s">
         <v>5910</v>
       </c>
+      <c r="C2971" t="s">
+        <v>1</v>
+      </c>
       <c r="D2971" t="s">
         <v>5911</v>
       </c>
@@ -62581,6 +63613,9 @@
       <c r="B2972" t="s">
         <v>5912</v>
       </c>
+      <c r="C2972" t="s">
+        <v>1</v>
+      </c>
       <c r="D2972" t="s">
         <v>5913</v>
       </c>
@@ -62589,6 +63624,9 @@
       <c r="B2973" t="s">
         <v>5914</v>
       </c>
+      <c r="C2973" t="s">
+        <v>1</v>
+      </c>
       <c r="D2973" t="s">
         <v>5915</v>
       </c>
@@ -62597,6 +63635,9 @@
       <c r="B2974" t="s">
         <v>5916</v>
       </c>
+      <c r="C2974" t="s">
+        <v>1</v>
+      </c>
       <c r="D2974" t="s">
         <v>5917</v>
       </c>
@@ -62605,6 +63646,9 @@
       <c r="B2975" t="s">
         <v>5918</v>
       </c>
+      <c r="C2975" t="s">
+        <v>1</v>
+      </c>
       <c r="D2975" t="s">
         <v>5919</v>
       </c>
@@ -62613,6 +63657,9 @@
       <c r="B2976" t="s">
         <v>5920</v>
       </c>
+      <c r="C2976" t="s">
+        <v>1</v>
+      </c>
       <c r="D2976" t="s">
         <v>5921</v>
       </c>
@@ -62677,6 +63724,9 @@
       <c r="B2984" t="s">
         <v>5936</v>
       </c>
+      <c r="C2984" t="s">
+        <v>1</v>
+      </c>
       <c r="D2984" t="s">
         <v>5937</v>
       </c>
@@ -62701,6 +63751,9 @@
       <c r="B2987" t="s">
         <v>5942</v>
       </c>
+      <c r="C2987" t="s">
+        <v>1</v>
+      </c>
       <c r="D2987" t="s">
         <v>5943</v>
       </c>
@@ -62717,6 +63770,9 @@
       <c r="B2989" t="s">
         <v>5946</v>
       </c>
+      <c r="C2989" t="s">
+        <v>1</v>
+      </c>
       <c r="D2989" t="s">
         <v>5947</v>
       </c>
@@ -62725,6 +63781,9 @@
       <c r="B2990" t="s">
         <v>5948</v>
       </c>
+      <c r="C2990" t="s">
+        <v>1</v>
+      </c>
       <c r="D2990" t="s">
         <v>5949</v>
       </c>
@@ -62733,6 +63792,9 @@
       <c r="B2991" t="s">
         <v>5950</v>
       </c>
+      <c r="C2991" t="s">
+        <v>1</v>
+      </c>
       <c r="D2991" t="s">
         <v>5951</v>
       </c>
@@ -62765,6 +63827,9 @@
       <c r="B2995" t="s">
         <v>5958</v>
       </c>
+      <c r="C2995" t="s">
+        <v>1</v>
+      </c>
       <c r="D2995" t="s">
         <v>5959</v>
       </c>
@@ -62773,6 +63838,9 @@
       <c r="B2996" t="s">
         <v>5960</v>
       </c>
+      <c r="C2996" t="s">
+        <v>1</v>
+      </c>
       <c r="D2996" t="s">
         <v>5961</v>
       </c>
@@ -62781,6 +63849,9 @@
       <c r="B2997" t="s">
         <v>5962</v>
       </c>
+      <c r="C2997" t="s">
+        <v>1</v>
+      </c>
       <c r="D2997" t="s">
         <v>5963</v>
       </c>
@@ -62789,6 +63860,9 @@
       <c r="B2998" t="s">
         <v>5964</v>
       </c>
+      <c r="C2998" t="s">
+        <v>1</v>
+      </c>
       <c r="D2998" t="s">
         <v>5965</v>
       </c>
@@ -62797,6 +63871,9 @@
       <c r="B2999" t="s">
         <v>5966</v>
       </c>
+      <c r="C2999" t="s">
+        <v>1</v>
+      </c>
       <c r="D2999" t="s">
         <v>5967</v>
       </c>
@@ -62805,6 +63882,9 @@
       <c r="B3000" t="s">
         <v>5968</v>
       </c>
+      <c r="C3000" t="s">
+        <v>1</v>
+      </c>
       <c r="D3000" t="s">
         <v>5969</v>
       </c>
@@ -62813,6 +63893,9 @@
       <c r="B3001" t="s">
         <v>5970</v>
       </c>
+      <c r="C3001" t="s">
+        <v>1</v>
+      </c>
       <c r="D3001" t="s">
         <v>5971</v>
       </c>
@@ -62829,6 +63912,9 @@
       <c r="B3003" t="s">
         <v>5974</v>
       </c>
+      <c r="C3003" t="s">
+        <v>1</v>
+      </c>
       <c r="D3003" t="s">
         <v>5975</v>
       </c>
@@ -62845,6 +63931,9 @@
       <c r="B3005" t="s">
         <v>5978</v>
       </c>
+      <c r="C3005" t="s">
+        <v>1</v>
+      </c>
       <c r="D3005" t="s">
         <v>5979</v>
       </c>
@@ -62861,6 +63950,9 @@
       <c r="B3007" t="s">
         <v>5982</v>
       </c>
+      <c r="C3007" t="s">
+        <v>1</v>
+      </c>
       <c r="D3007" t="s">
         <v>5983</v>
       </c>
@@ -62869,6 +63961,9 @@
       <c r="B3008" t="s">
         <v>5984</v>
       </c>
+      <c r="C3008" t="s">
+        <v>1</v>
+      </c>
       <c r="D3008" t="s">
         <v>5985</v>
       </c>
@@ -62877,6 +63972,9 @@
       <c r="B3009" t="s">
         <v>5986</v>
       </c>
+      <c r="C3009" t="s">
+        <v>1</v>
+      </c>
       <c r="D3009" t="s">
         <v>5987</v>
       </c>
@@ -62901,6 +63999,9 @@
       <c r="B3012" t="s">
         <v>5992</v>
       </c>
+      <c r="C3012" t="s">
+        <v>1</v>
+      </c>
       <c r="D3012" t="s">
         <v>5993</v>
       </c>
@@ -62909,6 +64010,9 @@
       <c r="B3013" t="s">
         <v>5994</v>
       </c>
+      <c r="C3013" t="s">
+        <v>1</v>
+      </c>
       <c r="D3013" t="s">
         <v>5995</v>
       </c>
@@ -62917,6 +64021,9 @@
       <c r="B3014" t="s">
         <v>5996</v>
       </c>
+      <c r="C3014" t="s">
+        <v>1</v>
+      </c>
       <c r="D3014" t="s">
         <v>5997</v>
       </c>
@@ -62957,6 +64064,9 @@
       <c r="B3019" t="s">
         <v>6006</v>
       </c>
+      <c r="C3019" t="s">
+        <v>1</v>
+      </c>
       <c r="D3019" t="s">
         <v>6007</v>
       </c>
@@ -62965,6 +64075,9 @@
       <c r="B3020" t="s">
         <v>6008</v>
       </c>
+      <c r="C3020" t="s">
+        <v>1</v>
+      </c>
       <c r="D3020" t="s">
         <v>6009</v>
       </c>
@@ -62997,6 +64110,9 @@
       <c r="B3024" t="s">
         <v>6016</v>
       </c>
+      <c r="C3024" t="s">
+        <v>1</v>
+      </c>
       <c r="D3024" t="s">
         <v>6017</v>
       </c>
@@ -63013,6 +64129,9 @@
       <c r="B3026" t="s">
         <v>6020</v>
       </c>
+      <c r="C3026" t="s">
+        <v>1</v>
+      </c>
       <c r="D3026" t="s">
         <v>6021</v>
       </c>
@@ -63029,6 +64148,9 @@
       <c r="B3028" t="s">
         <v>6024</v>
       </c>
+      <c r="C3028" t="s">
+        <v>1</v>
+      </c>
       <c r="D3028" t="s">
         <v>6025</v>
       </c>
@@ -63045,6 +64167,9 @@
       <c r="B3030" t="s">
         <v>6028</v>
       </c>
+      <c r="C3030" t="s">
+        <v>1</v>
+      </c>
       <c r="D3030" t="s">
         <v>6029</v>
       </c>
@@ -63061,6 +64186,9 @@
       <c r="B3032" t="s">
         <v>6032</v>
       </c>
+      <c r="C3032" t="s">
+        <v>1</v>
+      </c>
       <c r="D3032" t="s">
         <v>6033</v>
       </c>
@@ -63069,6 +64197,9 @@
       <c r="B3033" t="s">
         <v>6034</v>
       </c>
+      <c r="C3033" t="s">
+        <v>1</v>
+      </c>
       <c r="D3033" t="s">
         <v>6035</v>
       </c>
@@ -63085,6 +64216,9 @@
       <c r="B3035" t="s">
         <v>6038</v>
       </c>
+      <c r="C3035" t="s">
+        <v>1</v>
+      </c>
       <c r="D3035" t="s">
         <v>6039</v>
       </c>
@@ -63109,6 +64243,9 @@
       <c r="B3038" t="s">
         <v>6044</v>
       </c>
+      <c r="C3038" t="s">
+        <v>1</v>
+      </c>
       <c r="D3038" t="s">
         <v>6045</v>
       </c>
@@ -63117,6 +64254,9 @@
       <c r="B3039" t="s">
         <v>6046</v>
       </c>
+      <c r="C3039" t="s">
+        <v>1</v>
+      </c>
       <c r="D3039" t="s">
         <v>6047</v>
       </c>
@@ -63157,6 +64297,9 @@
       <c r="B3044" t="s">
         <v>6056</v>
       </c>
+      <c r="C3044" t="s">
+        <v>1</v>
+      </c>
       <c r="D3044" t="s">
         <v>6057</v>
       </c>
@@ -63165,6 +64308,9 @@
       <c r="B3045" t="s">
         <v>6058</v>
       </c>
+      <c r="C3045" t="s">
+        <v>1</v>
+      </c>
       <c r="D3045" t="s">
         <v>6059</v>
       </c>
@@ -63173,6 +64319,9 @@
       <c r="B3046" t="s">
         <v>6060</v>
       </c>
+      <c r="C3046" t="s">
+        <v>1</v>
+      </c>
       <c r="D3046" t="s">
         <v>6061</v>
       </c>
@@ -63181,6 +64330,9 @@
       <c r="B3047" t="s">
         <v>6062</v>
       </c>
+      <c r="C3047" t="s">
+        <v>1</v>
+      </c>
       <c r="D3047" t="s">
         <v>6063</v>
       </c>
@@ -63197,6 +64349,9 @@
       <c r="B3049" t="s">
         <v>6066</v>
       </c>
+      <c r="C3049" t="s">
+        <v>1</v>
+      </c>
       <c r="D3049" t="s">
         <v>6067</v>
       </c>
@@ -63221,6 +64376,9 @@
       <c r="B3052" t="s">
         <v>6072</v>
       </c>
+      <c r="C3052" t="s">
+        <v>1</v>
+      </c>
       <c r="D3052" t="s">
         <v>6073</v>
       </c>
@@ -63229,6 +64387,9 @@
       <c r="B3053" t="s">
         <v>6074</v>
       </c>
+      <c r="C3053" t="s">
+        <v>1</v>
+      </c>
       <c r="D3053" t="s">
         <v>6075</v>
       </c>
@@ -63237,6 +64398,9 @@
       <c r="B3054" t="s">
         <v>6076</v>
       </c>
+      <c r="C3054" t="s">
+        <v>1</v>
+      </c>
       <c r="D3054" t="s">
         <v>6077</v>
       </c>
@@ -63245,6 +64409,9 @@
       <c r="B3055" t="s">
         <v>6078</v>
       </c>
+      <c r="C3055" t="s">
+        <v>1</v>
+      </c>
       <c r="D3055" t="s">
         <v>6079</v>
       </c>
@@ -63253,6 +64420,9 @@
       <c r="B3056" t="s">
         <v>6080</v>
       </c>
+      <c r="C3056" t="s">
+        <v>1</v>
+      </c>
       <c r="D3056" t="s">
         <v>6081</v>
       </c>
@@ -63277,6 +64447,9 @@
       <c r="B3059" t="s">
         <v>6086</v>
       </c>
+      <c r="C3059" t="s">
+        <v>1</v>
+      </c>
       <c r="D3059" t="s">
         <v>6087</v>
       </c>
@@ -63301,6 +64474,9 @@
       <c r="B3062" t="s">
         <v>6092</v>
       </c>
+      <c r="C3062" t="s">
+        <v>1</v>
+      </c>
       <c r="D3062" t="s">
         <v>6093</v>
       </c>
@@ -63317,6 +64493,9 @@
       <c r="B3064" t="s">
         <v>6096</v>
       </c>
+      <c r="C3064" t="s">
+        <v>1</v>
+      </c>
       <c r="D3064" t="s">
         <v>6097</v>
       </c>
@@ -63325,6 +64504,9 @@
       <c r="B3065" t="s">
         <v>6098</v>
       </c>
+      <c r="C3065" t="s">
+        <v>1</v>
+      </c>
       <c r="D3065" t="s">
         <v>6099</v>
       </c>
@@ -63333,6 +64515,9 @@
       <c r="B3066" t="s">
         <v>6100</v>
       </c>
+      <c r="C3066" t="s">
+        <v>1</v>
+      </c>
       <c r="D3066" t="s">
         <v>6101</v>
       </c>
@@ -63341,6 +64526,9 @@
       <c r="B3067" t="s">
         <v>6102</v>
       </c>
+      <c r="C3067" t="s">
+        <v>1</v>
+      </c>
       <c r="D3067" t="s">
         <v>6103</v>
       </c>
@@ -63349,6 +64537,9 @@
       <c r="B3068" t="s">
         <v>6104</v>
       </c>
+      <c r="C3068" t="s">
+        <v>1</v>
+      </c>
       <c r="D3068" t="s">
         <v>6105</v>
       </c>
@@ -63357,6 +64548,9 @@
       <c r="B3069" t="s">
         <v>6106</v>
       </c>
+      <c r="C3069" t="s">
+        <v>1</v>
+      </c>
       <c r="D3069" t="s">
         <v>6107</v>
       </c>
@@ -63397,6 +64591,9 @@
       <c r="B3074" t="s">
         <v>6116</v>
       </c>
+      <c r="C3074" t="s">
+        <v>1</v>
+      </c>
       <c r="D3074" t="s">
         <v>6117</v>
       </c>
@@ -63413,6 +64610,9 @@
       <c r="B3076" t="s">
         <v>6120</v>
       </c>
+      <c r="C3076" t="s">
+        <v>1</v>
+      </c>
       <c r="D3076" t="s">
         <v>6121</v>
       </c>
@@ -63429,6 +64629,9 @@
       <c r="B3078" t="s">
         <v>6124</v>
       </c>
+      <c r="C3078" t="s">
+        <v>1</v>
+      </c>
       <c r="D3078" t="s">
         <v>6125</v>
       </c>
@@ -63437,6 +64640,9 @@
       <c r="B3079" t="s">
         <v>6126</v>
       </c>
+      <c r="C3079" t="s">
+        <v>1</v>
+      </c>
       <c r="D3079" t="s">
         <v>6127</v>
       </c>
@@ -63445,6 +64651,9 @@
       <c r="B3080" t="s">
         <v>6128</v>
       </c>
+      <c r="C3080" t="s">
+        <v>1</v>
+      </c>
       <c r="D3080" t="s">
         <v>6129</v>
       </c>
@@ -63453,6 +64662,9 @@
       <c r="B3081" t="s">
         <v>6130</v>
       </c>
+      <c r="C3081" t="s">
+        <v>1</v>
+      </c>
       <c r="D3081" t="s">
         <v>6131</v>
       </c>
@@ -63501,6 +64713,9 @@
       <c r="B3087" t="s">
         <v>6142</v>
       </c>
+      <c r="C3087" t="s">
+        <v>1</v>
+      </c>
       <c r="D3087" t="s">
         <v>6143</v>
       </c>
@@ -63541,6 +64756,9 @@
       <c r="B3092" t="s">
         <v>6152</v>
       </c>
+      <c r="C3092" t="s">
+        <v>1</v>
+      </c>
       <c r="D3092" t="s">
         <v>6153</v>
       </c>
@@ -63549,6 +64767,9 @@
       <c r="B3093" t="s">
         <v>6154</v>
       </c>
+      <c r="C3093" t="s">
+        <v>1</v>
+      </c>
       <c r="D3093" t="s">
         <v>6155</v>
       </c>
@@ -63565,6 +64786,9 @@
       <c r="B3095" t="s">
         <v>6158</v>
       </c>
+      <c r="C3095" t="s">
+        <v>1</v>
+      </c>
       <c r="D3095" t="s">
         <v>6159</v>
       </c>
@@ -63573,6 +64797,9 @@
       <c r="B3096" t="s">
         <v>6160</v>
       </c>
+      <c r="C3096" t="s">
+        <v>1</v>
+      </c>
       <c r="D3096" t="s">
         <v>6161</v>
       </c>
@@ -63581,6 +64808,9 @@
       <c r="B3097" t="s">
         <v>6162</v>
       </c>
+      <c r="C3097" t="s">
+        <v>1</v>
+      </c>
       <c r="D3097" t="s">
         <v>6163</v>
       </c>
@@ -63653,6 +64883,9 @@
       <c r="B3106" t="s">
         <v>6180</v>
       </c>
+      <c r="C3106" t="s">
+        <v>1</v>
+      </c>
       <c r="D3106" t="s">
         <v>6181</v>
       </c>
@@ -63661,6 +64894,9 @@
       <c r="B3107" t="s">
         <v>6182</v>
       </c>
+      <c r="C3107" t="s">
+        <v>1</v>
+      </c>
       <c r="D3107" t="s">
         <v>6183</v>
       </c>
@@ -63717,6 +64953,9 @@
       <c r="B3114" t="s">
         <v>6196</v>
       </c>
+      <c r="C3114" t="s">
+        <v>1</v>
+      </c>
       <c r="D3114" t="s">
         <v>6197</v>
       </c>
@@ -63733,6 +64972,9 @@
       <c r="B3116" t="s">
         <v>6200</v>
       </c>
+      <c r="C3116" t="s">
+        <v>1</v>
+      </c>
       <c r="D3116" t="s">
         <v>6201</v>
       </c>
@@ -63741,6 +64983,9 @@
       <c r="B3117" t="s">
         <v>6202</v>
       </c>
+      <c r="C3117" t="s">
+        <v>1</v>
+      </c>
       <c r="D3117" t="s">
         <v>6203</v>
       </c>
@@ -63757,6 +65002,9 @@
       <c r="B3119" t="s">
         <v>6206</v>
       </c>
+      <c r="C3119" t="s">
+        <v>1</v>
+      </c>
       <c r="D3119" t="s">
         <v>6207</v>
       </c>
@@ -63765,6 +65013,9 @@
       <c r="B3120" t="s">
         <v>6208</v>
       </c>
+      <c r="C3120" t="s">
+        <v>1</v>
+      </c>
       <c r="D3120" t="s">
         <v>6209</v>
       </c>
@@ -63773,6 +65024,9 @@
       <c r="B3121" t="s">
         <v>6210</v>
       </c>
+      <c r="C3121" t="s">
+        <v>1</v>
+      </c>
       <c r="D3121" t="s">
         <v>6211</v>
       </c>
@@ -63805,6 +65059,9 @@
       <c r="B3125" t="s">
         <v>6218</v>
       </c>
+      <c r="C3125" t="s">
+        <v>1</v>
+      </c>
       <c r="D3125" t="s">
         <v>6219</v>
       </c>
@@ -63821,6 +65078,9 @@
       <c r="B3127" t="s">
         <v>6222</v>
       </c>
+      <c r="C3127" t="s">
+        <v>1</v>
+      </c>
       <c r="D3127" t="s">
         <v>6223</v>
       </c>
@@ -63837,6 +65097,9 @@
       <c r="B3129" t="s">
         <v>6226</v>
       </c>
+      <c r="C3129" t="s">
+        <v>1</v>
+      </c>
       <c r="D3129" t="s">
         <v>6227</v>
       </c>
@@ -63861,6 +65124,9 @@
       <c r="B3132" t="s">
         <v>6232</v>
       </c>
+      <c r="C3132" t="s">
+        <v>1</v>
+      </c>
       <c r="D3132" t="s">
         <v>6233</v>
       </c>
@@ -63869,6 +65135,9 @@
       <c r="B3133" t="s">
         <v>6234</v>
       </c>
+      <c r="C3133" t="s">
+        <v>1</v>
+      </c>
       <c r="D3133" t="s">
         <v>6235</v>
       </c>
@@ -63877,6 +65146,9 @@
       <c r="B3134" t="s">
         <v>6236</v>
       </c>
+      <c r="C3134" t="s">
+        <v>1</v>
+      </c>
       <c r="D3134" t="s">
         <v>6237</v>
       </c>
@@ -63893,6 +65165,9 @@
       <c r="B3136" t="s">
         <v>6240</v>
       </c>
+      <c r="C3136" t="s">
+        <v>1</v>
+      </c>
       <c r="D3136" t="s">
         <v>6241</v>
       </c>
@@ -63909,6 +65184,9 @@
       <c r="B3138" t="s">
         <v>6244</v>
       </c>
+      <c r="C3138" t="s">
+        <v>1</v>
+      </c>
       <c r="D3138" t="s">
         <v>6245</v>
       </c>
@@ -63925,6 +65203,9 @@
       <c r="B3140" t="s">
         <v>6248</v>
       </c>
+      <c r="C3140" t="s">
+        <v>1</v>
+      </c>
       <c r="D3140" t="s">
         <v>6249</v>
       </c>
@@ -63933,6 +65214,9 @@
       <c r="B3141" t="s">
         <v>6250</v>
       </c>
+      <c r="C3141" t="s">
+        <v>1</v>
+      </c>
       <c r="D3141" t="s">
         <v>6251</v>
       </c>
@@ -63941,6 +65225,9 @@
       <c r="B3142" t="s">
         <v>6252</v>
       </c>
+      <c r="C3142" t="s">
+        <v>1</v>
+      </c>
       <c r="D3142" t="s">
         <v>6253</v>
       </c>
@@ -63949,6 +65236,9 @@
       <c r="B3143" t="s">
         <v>6254</v>
       </c>
+      <c r="C3143" t="s">
+        <v>1</v>
+      </c>
       <c r="D3143" t="s">
         <v>6255</v>
       </c>
@@ -63981,6 +65271,9 @@
       <c r="B3147" t="s">
         <v>6262</v>
       </c>
+      <c r="C3147" t="s">
+        <v>1</v>
+      </c>
       <c r="D3147" t="s">
         <v>6263</v>
       </c>
@@ -64005,6 +65298,9 @@
       <c r="B3150" t="s">
         <v>6268</v>
       </c>
+      <c r="C3150" t="s">
+        <v>1</v>
+      </c>
       <c r="D3150" t="s">
         <v>6269</v>
       </c>
@@ -64021,6 +65317,9 @@
       <c r="B3152" t="s">
         <v>6272</v>
       </c>
+      <c r="C3152" t="s">
+        <v>1</v>
+      </c>
       <c r="D3152" t="s">
         <v>6273</v>
       </c>
@@ -64029,6 +65328,9 @@
       <c r="B3153" t="s">
         <v>6274</v>
       </c>
+      <c r="C3153" t="s">
+        <v>1</v>
+      </c>
       <c r="D3153" t="s">
         <v>6275</v>
       </c>
@@ -64053,6 +65355,9 @@
       <c r="B3156" t="s">
         <v>6280</v>
       </c>
+      <c r="C3156" t="s">
+        <v>1</v>
+      </c>
       <c r="D3156" t="s">
         <v>6281</v>
       </c>
@@ -64061,6 +65366,9 @@
       <c r="B3157" t="s">
         <v>6282</v>
       </c>
+      <c r="C3157" t="s">
+        <v>1</v>
+      </c>
       <c r="D3157" t="s">
         <v>6283</v>
       </c>
@@ -64069,6 +65377,9 @@
       <c r="B3158" t="s">
         <v>6284</v>
       </c>
+      <c r="C3158" t="s">
+        <v>1</v>
+      </c>
       <c r="D3158" t="s">
         <v>6285</v>
       </c>
@@ -64077,6 +65388,9 @@
       <c r="B3159" t="s">
         <v>6286</v>
       </c>
+      <c r="C3159" t="s">
+        <v>1</v>
+      </c>
       <c r="D3159" t="s">
         <v>6287</v>
       </c>
@@ -64117,6 +65431,9 @@
       <c r="B3164" t="s">
         <v>6296</v>
       </c>
+      <c r="C3164" t="s">
+        <v>1</v>
+      </c>
       <c r="D3164" t="s">
         <v>6297</v>
       </c>
@@ -64133,6 +65450,9 @@
       <c r="B3166" t="s">
         <v>6300</v>
       </c>
+      <c r="C3166" t="s">
+        <v>1</v>
+      </c>
       <c r="D3166" t="s">
         <v>6301</v>
       </c>
@@ -64149,6 +65469,9 @@
       <c r="B3168" t="s">
         <v>6304</v>
       </c>
+      <c r="C3168" t="s">
+        <v>1</v>
+      </c>
       <c r="D3168" t="s">
         <v>6305</v>
       </c>
@@ -64165,6 +65488,9 @@
       <c r="B3170" t="s">
         <v>6308</v>
       </c>
+      <c r="C3170" t="s">
+        <v>1</v>
+      </c>
       <c r="D3170" t="s">
         <v>6309</v>
       </c>
@@ -64173,6 +65499,9 @@
       <c r="B3171" t="s">
         <v>6310</v>
       </c>
+      <c r="C3171" t="s">
+        <v>1</v>
+      </c>
       <c r="D3171" t="s">
         <v>6311</v>
       </c>
@@ -64181,6 +65510,9 @@
       <c r="B3172" t="s">
         <v>6312</v>
       </c>
+      <c r="C3172" t="s">
+        <v>1</v>
+      </c>
       <c r="D3172" t="s">
         <v>6313</v>
       </c>
@@ -64189,6 +65521,9 @@
       <c r="B3173" t="s">
         <v>6314</v>
       </c>
+      <c r="C3173" t="s">
+        <v>1</v>
+      </c>
       <c r="D3173" t="s">
         <v>6315</v>
       </c>
@@ -64213,6 +65548,9 @@
       <c r="B3176" t="s">
         <v>6320</v>
       </c>
+      <c r="C3176" t="s">
+        <v>1</v>
+      </c>
       <c r="D3176" t="s">
         <v>6321</v>
       </c>
@@ -64229,6 +65567,9 @@
       <c r="B3178" t="s">
         <v>6324</v>
       </c>
+      <c r="C3178" t="s">
+        <v>1</v>
+      </c>
       <c r="D3178" t="s">
         <v>6325</v>
       </c>
@@ -64237,6 +65578,9 @@
       <c r="B3179" t="s">
         <v>6326</v>
       </c>
+      <c r="C3179" t="s">
+        <v>1</v>
+      </c>
       <c r="D3179" t="s">
         <v>6327</v>
       </c>
@@ -64293,6 +65637,9 @@
       <c r="B3186" t="s">
         <v>6340</v>
       </c>
+      <c r="C3186" t="s">
+        <v>1</v>
+      </c>
       <c r="D3186" t="s">
         <v>6341</v>
       </c>
@@ -64309,6 +65656,9 @@
       <c r="B3188" t="s">
         <v>6344</v>
       </c>
+      <c r="C3188" t="s">
+        <v>1</v>
+      </c>
       <c r="D3188" t="s">
         <v>6345</v>
       </c>
@@ -64317,6 +65667,9 @@
       <c r="B3189" t="s">
         <v>6346</v>
       </c>
+      <c r="C3189" t="s">
+        <v>1</v>
+      </c>
       <c r="D3189" t="s">
         <v>6347</v>
       </c>
@@ -64333,6 +65686,9 @@
       <c r="B3191" t="s">
         <v>6350</v>
       </c>
+      <c r="C3191" t="s">
+        <v>1</v>
+      </c>
       <c r="D3191" t="s">
         <v>6351</v>
       </c>
@@ -64373,6 +65729,9 @@
       <c r="B3196" t="s">
         <v>6360</v>
       </c>
+      <c r="C3196" t="s">
+        <v>1</v>
+      </c>
       <c r="D3196" t="s">
         <v>6361</v>
       </c>
@@ -64397,6 +65756,9 @@
       <c r="B3199" t="s">
         <v>6366</v>
       </c>
+      <c r="C3199" t="s">
+        <v>1</v>
+      </c>
       <c r="D3199" t="s">
         <v>6367</v>
       </c>
@@ -64413,6 +65775,9 @@
       <c r="B3201" t="s">
         <v>6370</v>
       </c>
+      <c r="C3201" t="s">
+        <v>1</v>
+      </c>
       <c r="D3201" t="s">
         <v>6371</v>
       </c>
@@ -64429,6 +65794,9 @@
       <c r="B3203" t="s">
         <v>6374</v>
       </c>
+      <c r="C3203" t="s">
+        <v>1</v>
+      </c>
       <c r="D3203" t="s">
         <v>6375</v>
       </c>
@@ -64437,6 +65805,9 @@
       <c r="B3204" t="s">
         <v>6376</v>
       </c>
+      <c r="C3204" t="s">
+        <v>1</v>
+      </c>
       <c r="D3204" t="s">
         <v>6377</v>
       </c>
@@ -64445,6 +65816,9 @@
       <c r="B3205" t="s">
         <v>6378</v>
       </c>
+      <c r="C3205" t="s">
+        <v>1</v>
+      </c>
       <c r="D3205" t="s">
         <v>6379</v>
       </c>
@@ -64461,6 +65835,9 @@
       <c r="B3207" t="s">
         <v>6382</v>
       </c>
+      <c r="C3207" t="s">
+        <v>1</v>
+      </c>
       <c r="D3207" t="s">
         <v>6383</v>
       </c>
@@ -64485,6 +65862,9 @@
       <c r="B3210" t="s">
         <v>6388</v>
       </c>
+      <c r="C3210" t="s">
+        <v>1</v>
+      </c>
       <c r="D3210" t="s">
         <v>6389</v>
       </c>
@@ -64493,6 +65873,9 @@
       <c r="B3211" t="s">
         <v>6390</v>
       </c>
+      <c r="C3211" t="s">
+        <v>1</v>
+      </c>
       <c r="D3211" t="s">
         <v>6391</v>
       </c>
@@ -64501,6 +65884,9 @@
       <c r="B3212" t="s">
         <v>6392</v>
       </c>
+      <c r="C3212" t="s">
+        <v>1</v>
+      </c>
       <c r="D3212" t="s">
         <v>6393</v>
       </c>
@@ -64509,6 +65895,9 @@
       <c r="B3213" t="s">
         <v>6394</v>
       </c>
+      <c r="C3213" t="s">
+        <v>1</v>
+      </c>
       <c r="D3213" t="s">
         <v>6395</v>
       </c>
@@ -64549,6 +65938,9 @@
       <c r="B3218" t="s">
         <v>6404</v>
       </c>
+      <c r="C3218" t="s">
+        <v>1</v>
+      </c>
       <c r="D3218" t="s">
         <v>6405</v>
       </c>
@@ -64557,6 +65949,9 @@
       <c r="B3219" t="s">
         <v>6406</v>
       </c>
+      <c r="C3219" t="s">
+        <v>1</v>
+      </c>
       <c r="D3219" t="s">
         <v>6407</v>
       </c>
@@ -64573,6 +65968,9 @@
       <c r="B3221" t="s">
         <v>6410</v>
       </c>
+      <c r="C3221" t="s">
+        <v>1</v>
+      </c>
       <c r="D3221" t="s">
         <v>6411</v>
       </c>
@@ -64581,6 +65979,9 @@
       <c r="B3222" t="s">
         <v>6412</v>
       </c>
+      <c r="C3222" t="s">
+        <v>1</v>
+      </c>
       <c r="D3222" t="s">
         <v>6413</v>
       </c>
@@ -64597,6 +65998,9 @@
       <c r="B3224" t="s">
         <v>6416</v>
       </c>
+      <c r="C3224" t="s">
+        <v>1</v>
+      </c>
       <c r="D3224" t="s">
         <v>6417</v>
       </c>
@@ -64605,6 +66009,9 @@
       <c r="B3225" t="s">
         <v>6418</v>
       </c>
+      <c r="C3225" t="s">
+        <v>1</v>
+      </c>
       <c r="D3225" t="s">
         <v>6419</v>
       </c>
@@ -64613,6 +66020,9 @@
       <c r="B3226" t="s">
         <v>6420</v>
       </c>
+      <c r="C3226" t="s">
+        <v>1</v>
+      </c>
       <c r="D3226" t="s">
         <v>6421</v>
       </c>
@@ -64621,6 +66031,9 @@
       <c r="B3227" t="s">
         <v>6422</v>
       </c>
+      <c r="C3227" t="s">
+        <v>1</v>
+      </c>
       <c r="D3227" t="s">
         <v>6423</v>
       </c>
@@ -64637,6 +66050,9 @@
       <c r="B3229" t="s">
         <v>6426</v>
       </c>
+      <c r="C3229" t="s">
+        <v>1</v>
+      </c>
       <c r="D3229" t="s">
         <v>6427</v>
       </c>
@@ -64653,6 +66069,9 @@
       <c r="B3231" t="s">
         <v>6430</v>
       </c>
+      <c r="C3231" t="s">
+        <v>1</v>
+      </c>
       <c r="D3231" t="s">
         <v>6431</v>
       </c>
@@ -64661,6 +66080,9 @@
       <c r="B3232" t="s">
         <v>6432</v>
       </c>
+      <c r="C3232" t="s">
+        <v>1</v>
+      </c>
       <c r="D3232" t="s">
         <v>6433</v>
       </c>
@@ -64669,6 +66091,9 @@
       <c r="B3233" t="s">
         <v>6434</v>
       </c>
+      <c r="C3233" t="s">
+        <v>1</v>
+      </c>
       <c r="D3233" t="s">
         <v>6435</v>
       </c>
@@ -64677,6 +66102,9 @@
       <c r="B3234" t="s">
         <v>6436</v>
       </c>
+      <c r="C3234" t="s">
+        <v>1</v>
+      </c>
       <c r="D3234" t="s">
         <v>6437</v>
       </c>
@@ -64685,6 +66113,9 @@
       <c r="B3235" t="s">
         <v>6438</v>
       </c>
+      <c r="C3235" t="s">
+        <v>1</v>
+      </c>
       <c r="D3235" t="s">
         <v>6439</v>
       </c>
@@ -64709,6 +66140,9 @@
       <c r="B3238" t="s">
         <v>6444</v>
       </c>
+      <c r="C3238" t="s">
+        <v>1</v>
+      </c>
       <c r="D3238" t="s">
         <v>6445</v>
       </c>
@@ -64717,6 +66151,9 @@
       <c r="B3239" t="s">
         <v>6446</v>
       </c>
+      <c r="C3239" t="s">
+        <v>1</v>
+      </c>
       <c r="D3239" t="s">
         <v>6447</v>
       </c>
@@ -64733,6 +66170,9 @@
       <c r="B3241" t="s">
         <v>6450</v>
       </c>
+      <c r="C3241" t="s">
+        <v>1</v>
+      </c>
       <c r="D3241" t="s">
         <v>6451</v>
       </c>
@@ -64741,6 +66181,9 @@
       <c r="B3242" t="s">
         <v>6452</v>
       </c>
+      <c r="C3242" t="s">
+        <v>1</v>
+      </c>
       <c r="D3242" t="s">
         <v>6453</v>
       </c>
@@ -64749,6 +66192,9 @@
       <c r="B3243" t="s">
         <v>6454</v>
       </c>
+      <c r="C3243" t="s">
+        <v>1</v>
+      </c>
       <c r="D3243" t="s">
         <v>6455</v>
       </c>
@@ -64765,6 +66211,9 @@
       <c r="B3245" t="s">
         <v>6458</v>
       </c>
+      <c r="C3245" t="s">
+        <v>1</v>
+      </c>
       <c r="D3245" t="s">
         <v>6459</v>
       </c>
@@ -64781,6 +66230,9 @@
       <c r="B3247" t="s">
         <v>6462</v>
       </c>
+      <c r="C3247" t="s">
+        <v>1</v>
+      </c>
       <c r="D3247" t="s">
         <v>6463</v>
       </c>
@@ -64789,6 +66241,9 @@
       <c r="B3248" t="s">
         <v>6464</v>
       </c>
+      <c r="C3248" t="s">
+        <v>1</v>
+      </c>
       <c r="D3248" t="s">
         <v>6465</v>
       </c>
@@ -64797,6 +66252,9 @@
       <c r="B3249" t="s">
         <v>6466</v>
       </c>
+      <c r="C3249" t="s">
+        <v>1</v>
+      </c>
       <c r="D3249" t="s">
         <v>6467</v>
       </c>
@@ -64805,6 +66263,9 @@
       <c r="B3250" t="s">
         <v>6468</v>
       </c>
+      <c r="C3250" t="s">
+        <v>1</v>
+      </c>
       <c r="D3250" t="s">
         <v>6469</v>
       </c>
@@ -64829,6 +66290,9 @@
       <c r="B3253" t="s">
         <v>6474</v>
       </c>
+      <c r="C3253" t="s">
+        <v>1</v>
+      </c>
       <c r="D3253" t="s">
         <v>6475</v>
       </c>
@@ -64837,6 +66301,9 @@
       <c r="B3254" t="s">
         <v>6476</v>
       </c>
+      <c r="C3254" t="s">
+        <v>1</v>
+      </c>
       <c r="D3254" t="s">
         <v>6477</v>
       </c>
@@ -66550,23 +68017,23 @@
         <v>6904</v>
       </c>
       <c r="D3468" t="s">
-        <v>1210</v>
+        <v>6905</v>
       </c>
     </row>
     <row r="3469" spans="2:4">
       <c r="B3469" t="s">
-        <v>6905</v>
+        <v>6906</v>
       </c>
       <c r="D3469" t="s">
-        <v>6906</v>
+        <v>6907</v>
       </c>
     </row>
     <row r="3470" spans="2:4">
       <c r="B3470" t="s">
-        <v>6907</v>
+        <v>6908</v>
       </c>
       <c r="D3470" t="s">
-        <v>6908</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="3471" spans="2:4">
@@ -72470,23 +73937,23 @@
         <v>8383</v>
       </c>
       <c r="D4208" t="s">
-        <v>2226</v>
+        <v>8384</v>
       </c>
     </row>
     <row r="4209" spans="2:4">
       <c r="B4209" t="s">
-        <v>8384</v>
+        <v>8385</v>
       </c>
       <c r="D4209" t="s">
-        <v>8385</v>
+        <v>8386</v>
       </c>
     </row>
     <row r="4210" spans="2:4">
       <c r="B4210" t="s">
-        <v>8386</v>
+        <v>8387</v>
       </c>
       <c r="D4210" t="s">
-        <v>8387</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="4211" spans="2:4">
@@ -75142,23 +76609,23 @@
         <v>9050</v>
       </c>
       <c r="D4542" t="s">
-        <v>3970</v>
+        <v>9051</v>
       </c>
     </row>
     <row r="4543" spans="2:4">
       <c r="B4543" t="s">
-        <v>9051</v>
+        <v>9052</v>
       </c>
       <c r="D4543" t="s">
-        <v>9052</v>
+        <v>9053</v>
       </c>
     </row>
     <row r="4544" spans="2:4">
       <c r="B4544" t="s">
-        <v>9053</v>
+        <v>9054</v>
       </c>
       <c r="D4544" t="s">
-        <v>9054</v>
+        <v>3970</v>
       </c>
     </row>
     <row r="4545" spans="2:4">
@@ -75574,23 +77041,23 @@
         <v>9157</v>
       </c>
       <c r="D4596" t="s">
-        <v>9156</v>
+        <v>9158</v>
       </c>
     </row>
     <row r="4597" spans="2:4">
       <c r="B4597" t="s">
-        <v>9158</v>
+        <v>9159</v>
       </c>
       <c r="D4597" t="s">
-        <v>9159</v>
+        <v>9160</v>
       </c>
     </row>
     <row r="4598" spans="2:4">
       <c r="B4598" t="s">
+        <v>9161</v>
+      </c>
+      <c r="D4598" t="s">
         <v>9160</v>
-      </c>
-      <c r="D4598" t="s">
-        <v>9161</v>
       </c>
     </row>
     <row r="4599" spans="2:4">
@@ -79086,23 +80553,23 @@
         <v>10034</v>
       </c>
       <c r="D5035" t="s">
-        <v>5801</v>
+        <v>10035</v>
       </c>
     </row>
     <row r="5036" spans="2:4">
       <c r="B5036" t="s">
-        <v>10035</v>
+        <v>10036</v>
       </c>
       <c r="D5036" t="s">
-        <v>10036</v>
+        <v>10037</v>
       </c>
     </row>
     <row r="5037" spans="2:4">
       <c r="B5037" t="s">
-        <v>10037</v>
+        <v>10038</v>
       </c>
       <c r="D5037" t="s">
-        <v>10038</v>
+        <v>5805</v>
       </c>
     </row>
     <row r="5038" spans="2:4">
@@ -79230,23 +80697,23 @@
         <v>10069</v>
       </c>
       <c r="D5053" t="s">
-        <v>5520</v>
+        <v>10070</v>
       </c>
     </row>
     <row r="5054" spans="2:4">
       <c r="B5054" t="s">
-        <v>10070</v>
+        <v>10071</v>
       </c>
       <c r="D5054" t="s">
-        <v>10071</v>
+        <v>10072</v>
       </c>
     </row>
     <row r="5055" spans="2:4">
       <c r="B5055" t="s">
-        <v>10072</v>
+        <v>10073</v>
       </c>
       <c r="D5055" t="s">
-        <v>10073</v>
+        <v>5524</v>
       </c>
     </row>
     <row r="5056" spans="2:4">
@@ -80010,7 +81477,7 @@
       </c>
     </row>
     <row r="5151" spans="2:4">
-      <c r="B5151" s="4" t="s">
+      <c r="B5151" t="s">
         <v>10264</v>
       </c>
       <c r="D5151" t="s">
@@ -80026,7 +81493,7 @@
       </c>
     </row>
     <row r="5153" spans="2:4">
-      <c r="B5153" t="s">
+      <c r="B5153" s="4" t="s">
         <v>10268</v>
       </c>
       <c r="D5153" t="s">
@@ -83031,6 +84498,22 @@
       </c>
       <c r="D5528" t="s">
         <v>11019</v>
+      </c>
+    </row>
+    <row r="5529" spans="2:4">
+      <c r="B5529" t="s">
+        <v>11020</v>
+      </c>
+      <c r="D5529" t="s">
+        <v>11021</v>
+      </c>
+    </row>
+    <row r="5530" spans="2:4">
+      <c r="B5530" t="s">
+        <v>11022</v>
+      </c>
+      <c r="D5530" t="s">
+        <v>11023</v>
       </c>
     </row>
   </sheetData>
@@ -83038,7 +84521,7 @@
     <sortCondition ref="B1:B5528"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C54 C125 C144 C149 C150 C155 C187 C235 C278 C357 C391 C495 C525 C559 C560 C635 C655 C690 C748 C776 C785 C792 C833 C843 C931 C937 C938 C939 C946 C975 C1008 C1063 C1076 C1106 C1120 C1142 C1506 C2:C53 C55:C124 C126:C143 C145:C148 C151:C154 C156:C186 C188:C234 C236:C277 C279:C356 C358:C390 C392:C494 C496:C524 C526:C558 C561:C634 C636:C654 C656:C689 C691:C747 C749:C775 C777:C784 C786:C791 C793:C832 C834:C842 C844:C930 C932:C936 C940:C945 C947:C974 C976:C1007 C1009:C1062 C1064:C1075 C1077:C1105 C1107:C1119 C1121:C1141 C1143:C1505 C1507:C5528">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C54 C125 C144 C149 C150 C155 C187 C235 C278 C357 C391 C495 C525 C559 C560 C635 C655 C690 C748 C776 C785 C792 C833 C843 C931 C937 C938 C939 C946 C975 C1008 C1063 C1076 C1106 C1120 C1142 C1506 C2228 C2383 C2:C53 C55:C124 C126:C143 C145:C148 C151:C154 C156:C186 C188:C234 C236:C277 C279:C356 C358:C390 C392:C494 C496:C524 C526:C558 C561:C634 C636:C654 C656:C689 C691:C747 C749:C775 C777:C784 C786:C791 C793:C832 C834:C842 C844:C930 C932:C936 C940:C945 C947:C974 C976:C1007 C1009:C1062 C1064:C1075 C1077:C1105 C1107:C1119 C1121:C1141 C1143:C1505 C1507:C2227 C2229:C2382 C2384:C5530">
       <formula1>"基,核,同,派,边"</formula1>
     </dataValidation>
   </dataValidations>
